--- a/go_open_candidate_materials_list.xlsx
+++ b/go_open_candidate_materials_list.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tomo/codes/super_kon/cod_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tomo/codes/Public_Codes/Deep-Learning-to-find-Superconductors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A702D2D-4EDC-FE48-A37A-BB7778DF42DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0467E58F-BBB3-3E47-9FA6-46BFF2FCFC38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prediction_beyond_4_Kelvin_cnn_" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">prediction_beyond_4_Kelvin_cnn_!$A$1:$F$687</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">prediction_beyond_4_Kelvin_cnn_!$A$1:$F$686</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="779">
   <si>
     <t>matter</t>
   </si>
@@ -169,12 +169,6 @@
   </si>
   <si>
     <t xml:space="preserve">N2NbTi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bi2Ca </t>
-  </si>
-  <si>
-    <t>https://pubs.rsc.org/en/content/articlelanding/2016/cp/c6cp02856j#!divAbstract</t>
   </si>
   <si>
     <t xml:space="preserve">ClHfNNa0.288 </t>
@@ -2471,11 +2465,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>superconductort not in SuperCon? Tc ~ 2 K
-discussed in the paper</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t xml:space="preserve">ClHfNNa0.125 </t>
     <phoneticPr fontId="18"/>
   </si>
@@ -2498,7 +2487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2664,21 +2653,6 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -3135,7 +3109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3170,15 +3144,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -3552,10 +3517,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F687"/>
+  <dimension ref="A1:F686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="20"/>
@@ -3575,16 +3540,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="63">
@@ -3598,13 +3563,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1">
@@ -3618,7 +3583,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="126">
@@ -3632,13 +3597,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3655,7 +3620,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3666,10 +3631,10 @@
         <v>10.055329</v>
       </c>
       <c r="C6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3686,7 +3651,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="74" customHeight="1">
@@ -3697,16 +3662,16 @@
         <v>21.465534000000002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="84">
@@ -3720,18 +3685,18 @@
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="E9" t="s">
+        <v>771</v>
+      </c>
+      <c r="F9" t="s">
         <v>754</v>
-      </c>
-      <c r="E9" t="s">
-        <v>773</v>
-      </c>
-      <c r="F9" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="84">
       <c r="A10" s="6" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B10" s="6">
         <v>20.775912999999999</v>
@@ -3740,10 +3705,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3754,10 +3719,10 @@
         <v>20.478414999999998</v>
       </c>
       <c r="D11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3776,10 +3741,10 @@
         <v>19.380490000000002</v>
       </c>
       <c r="D13" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F13" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3790,10 +3755,10 @@
         <v>18.278829999999999</v>
       </c>
       <c r="D14" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F14" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -3813,7 +3778,7 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3824,7 +3789,7 @@
         <v>17.339939999999999</v>
       </c>
       <c r="D16" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3846,13 +3811,13 @@
         <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3871,10 +3836,10 @@
         <v>16.687526999999999</v>
       </c>
       <c r="D20" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F20" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3901,10 +3866,10 @@
         <v>15.111962</v>
       </c>
       <c r="D23" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F23" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3915,5585 +3880,5567 @@
         <v>14.989278000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F24" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" ht="63">
-      <c r="A25" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="12">
-        <v>14.857969000000001</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>781</v>
+      <c r="B25">
+        <v>14.763870000000001</v>
+      </c>
+      <c r="D25" t="s">
+        <v>738</v>
+      </c>
+      <c r="F25" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>14.729661999999999</v>
+      </c>
+      <c r="D26" t="s">
+        <v>735</v>
+      </c>
+      <c r="F26" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="6" customFormat="1" ht="126">
+      <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B26">
-        <v>14.763870000000001</v>
-      </c>
-      <c r="D26" t="s">
-        <v>740</v>
-      </c>
-      <c r="F26" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="B27" s="6">
+        <v>14.247975</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
-        <v>14.729661999999999</v>
-      </c>
-      <c r="D27" t="s">
-        <v>737</v>
-      </c>
-      <c r="F27" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" ht="126">
-      <c r="A28" s="6" t="s">
+      <c r="D27" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="6">
-        <v>14.247975</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>756</v>
+      <c r="B28">
+        <v>14.222785</v>
+      </c>
+      <c r="D28" t="s">
+        <v>739</v>
+      </c>
+      <c r="F28" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29">
-        <v>14.222785</v>
+        <v>14.199691</v>
       </c>
       <c r="D29" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F29" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30">
-        <v>14.199691</v>
+        <v>20.985856999999999</v>
       </c>
       <c r="D30" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F30" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31">
-        <v>20.985856999999999</v>
+        <v>13.507254</v>
       </c>
       <c r="D31" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F31" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
-        <v>13.507254</v>
-      </c>
-      <c r="D32" t="s">
-        <v>741</v>
-      </c>
-      <c r="F32" t="s">
-        <v>756</v>
+        <v>4.7999206000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>13.253776999999999</v>
+      </c>
+      <c r="D33" t="s">
         <v>48</v>
       </c>
-      <c r="B33">
-        <v>4.7999206000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:5" ht="84">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34">
-        <v>13.253776999999999</v>
+        <v>13.099849000000001</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="84">
+        <v>51</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35">
-        <v>13.099849000000001</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>52</v>
+        <v>12.112214</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="189">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>11.975629</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B36">
-        <v>12.112214</v>
-      </c>
-      <c r="D36" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="189">
+      <c r="D36" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37">
-        <v>11.975629</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>58</v>
+        <v>11.950919000000001</v>
+      </c>
+      <c r="D37" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38">
-        <v>11.950919000000001</v>
+        <v>11.923355000000001</v>
       </c>
       <c r="D38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39">
-        <v>11.923355000000001</v>
+        <v>11.790248</v>
       </c>
       <c r="D39" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40">
-        <v>11.790248</v>
+        <v>11.546416000000001</v>
       </c>
       <c r="D40" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41">
+        <v>11.400650000000001</v>
+      </c>
+      <c r="D41" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="126">
+      <c r="A42" t="s">
         <v>62</v>
       </c>
-      <c r="B41">
-        <v>11.546416000000001</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B42">
+        <v>12.521476</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43">
+        <v>11.364563</v>
+      </c>
+      <c r="D43" t="s">
         <v>744</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42">
-        <v>11.400650000000001</v>
-      </c>
-      <c r="D42" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="126">
-      <c r="A43" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43">
-        <v>12.521476</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44">
+        <v>24.302171999999999</v>
+      </c>
+      <c r="D44" t="s">
         <v>67</v>
       </c>
-      <c r="B44">
-        <v>11.364563</v>
-      </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="45" spans="1:5" s="9" customFormat="1" ht="42">
+      <c r="A45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="9">
+        <v>11.048347</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="12" customFormat="1" ht="84">
+      <c r="A46" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="12">
+        <v>10.917132000000001</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47">
+        <v>4.4557830000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="105">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>10.907804499999999</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" t="s">
+        <v>763</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49">
+        <v>10.892742999999999</v>
+      </c>
+      <c r="D49" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50">
+        <v>7.3709020000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51">
+        <v>10.794183</v>
+      </c>
+      <c r="D51" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52">
+        <v>5.4844245999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53">
+        <v>6.297339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54">
+        <v>10.766476000000001</v>
+      </c>
+      <c r="D54" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45">
-        <v>24.302171999999999</v>
-      </c>
-      <c r="D45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="9" customFormat="1" ht="42">
-      <c r="A46" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="9">
-        <v>11.048347</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>762</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="15" customFormat="1" ht="84">
-      <c r="A47" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="15">
-        <v>10.917132000000001</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48">
-        <v>4.4557830000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="105">
-      <c r="A49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49">
-        <v>10.907804499999999</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" t="s">
-        <v>765</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50">
-        <v>10.892742999999999</v>
-      </c>
-      <c r="D50" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51">
-        <v>7.3709020000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52">
-        <v>10.794183</v>
-      </c>
-      <c r="D52" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53">
-        <v>5.4844245999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
+    <row r="55" spans="1:4" s="6" customFormat="1">
+      <c r="A55" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B54">
-        <v>6.297339</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
+      <c r="B55" s="6">
+        <v>26.707329000000001</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B55">
-        <v>10.766476000000001</v>
-      </c>
-      <c r="D55" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="6" customFormat="1">
+    </row>
+    <row r="56" spans="1:4" s="6" customFormat="1">
       <c r="A56" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B56" s="6">
-        <v>26.707329000000001</v>
+        <v>10.500738</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="6" customFormat="1">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="6">
-        <v>10.500738</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="B57">
+        <v>9.5391969999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+      <c r="B58">
+        <v>10.435333999999999</v>
+      </c>
+      <c r="D58" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>88</v>
       </c>
-      <c r="B58">
-        <v>9.5391969999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
+      <c r="B59">
+        <v>10.406736</v>
+      </c>
+      <c r="D59" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>89</v>
       </c>
-      <c r="B59">
-        <v>10.435333999999999</v>
-      </c>
-      <c r="D59" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
+      <c r="B60">
+        <v>10.3376465</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B60">
-        <v>10.406736</v>
-      </c>
       <c r="D60" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>91</v>
       </c>
       <c r="B61">
-        <v>10.3376465</v>
-      </c>
-      <c r="C61" s="4" t="s">
+        <v>10.334042999999999</v>
+      </c>
+      <c r="D61" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>92</v>
       </c>
-      <c r="D61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
+      <c r="B62">
+        <v>10.244025000000001</v>
+      </c>
+      <c r="D62" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>93</v>
       </c>
-      <c r="B62">
-        <v>10.334042999999999</v>
-      </c>
-      <c r="D62" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
+      <c r="B63">
+        <v>10.2030525</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>94</v>
       </c>
-      <c r="B63">
-        <v>10.244025000000001</v>
-      </c>
-      <c r="D63" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>95</v>
-      </c>
       <c r="B64">
-        <v>10.2030525</v>
+        <v>10.182026</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>764</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65">
+        <v>4.172104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="12" customFormat="1" ht="105">
+      <c r="A66" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="B66" s="12">
+        <v>10.170709</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B65">
-        <v>10.182026</v>
-      </c>
-      <c r="D65" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
+      <c r="D66" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67">
+        <v>10.130252</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" t="s">
         <v>97</v>
       </c>
-      <c r="B66">
-        <v>4.172104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="15" customFormat="1" ht="105">
-      <c r="A67" s="15" t="s">
+    </row>
+    <row r="68" spans="1:6" s="9" customFormat="1" ht="42">
+      <c r="A68" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="B68" s="9">
+        <v>10.110555</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="B67" s="15">
-        <v>10.170709</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>775</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>101</v>
-      </c>
-      <c r="B68">
-        <v>10.130252</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="F68" s="9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="252">
+      <c r="A69" t="s">
         <v>102</v>
       </c>
-      <c r="D68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="9" customFormat="1" ht="42">
-      <c r="A69" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="B69" s="9">
-        <v>10.110555</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="B69">
+        <v>10.577821999999999</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>776</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="252">
+      <c r="D69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B70">
-        <v>10.577821999999999</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>105</v>
+        <v>10.041114</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>107</v>
+        <v>736</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71">
-        <v>10.041114</v>
-      </c>
-      <c r="D71" t="s">
-        <v>738</v>
+        <v>9.7570110000000003</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72">
-        <v>9.7570110000000003</v>
+        <v>10.011635999999999</v>
+      </c>
+      <c r="D72" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73">
-        <v>10.011635999999999</v>
-      </c>
-      <c r="D73" t="s">
-        <v>69</v>
+        <v>9.9628929999999993</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74">
-        <v>9.9628929999999993</v>
+        <v>5.7958198000000003</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75">
-        <v>5.7958198000000003</v>
+        <v>9.9404979999999998</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B76">
-        <v>9.9404979999999998</v>
+        <v>7.0432267</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77">
-        <v>7.0432267</v>
+        <v>9.9067769999999999</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B78">
-        <v>9.9067769999999999</v>
+        <v>9.5095229999999997</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79">
-        <v>9.5095229999999997</v>
+        <v>9.4227489999999996</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80">
-        <v>9.4227489999999996</v>
+        <v>5.2780990000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81">
-        <v>5.2780990000000001</v>
+        <v>9.3647100000000005</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82">
-        <v>9.3647100000000005</v>
+        <v>9.2645479999999996</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83">
-        <v>9.2645479999999996</v>
+        <v>9.1152320000000007</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84">
-        <v>9.1152320000000007</v>
+        <v>9.0283660000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B85">
-        <v>9.0283660000000001</v>
+        <v>8.9493760000000009</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86">
-        <v>8.9493760000000009</v>
+        <v>8.7914139999999996</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87">
-        <v>8.7914139999999996</v>
+        <v>8.7879570000000005</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88">
-        <v>8.7879570000000005</v>
+        <v>8.7113379999999996</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89">
-        <v>8.7113379999999996</v>
+        <v>8.6563719999999993</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90">
-        <v>8.6563719999999993</v>
+        <v>8.6401369999999993</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B91">
-        <v>8.6401369999999993</v>
+        <v>11.180922499999999</v>
+      </c>
+      <c r="D91" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B92">
-        <v>11.180922499999999</v>
-      </c>
-      <c r="D92" t="s">
-        <v>767</v>
+        <v>8.6191239999999993</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B93">
-        <v>8.6191239999999993</v>
+        <v>8.5480959999999993</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B94">
-        <v>8.5480959999999993</v>
+        <v>9.2778810000000007</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B95">
-        <v>9.2778810000000007</v>
+        <v>8.4480830000000005</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B96">
-        <v>8.4480830000000005</v>
+        <v>8.4457900000000006</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B97">
-        <v>8.4457900000000006</v>
+        <v>9.7056839999999998</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B98">
-        <v>9.7056839999999998</v>
+        <v>8.3970690000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B99">
-        <v>8.3970690000000001</v>
+        <v>8.3649869999999993</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B100">
-        <v>8.3649869999999993</v>
+        <v>8.3461075000000005</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B101">
-        <v>8.3461075000000005</v>
+        <v>8.3442710000000009</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B102">
-        <v>8.3442710000000009</v>
+        <v>4.2646875</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B103">
-        <v>4.2646875</v>
+        <v>8.3276219999999999</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B104">
-        <v>8.3276219999999999</v>
+        <v>8.2930849999999996</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B105">
-        <v>8.2930849999999996</v>
+        <v>8.0591000000000008</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B106">
-        <v>8.0591000000000008</v>
+        <v>8.0413250000000005</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B107">
-        <v>8.0413250000000005</v>
+        <v>9.4270929999999993</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B108">
-        <v>9.4270929999999993</v>
+        <v>7.9245514999999997</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B109">
-        <v>7.9245514999999997</v>
+        <v>7.8492784999999996</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B110">
-        <v>7.8492784999999996</v>
+        <v>7.8466578</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B111">
-        <v>7.8466578</v>
+        <v>7.8168110000000004</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B112">
-        <v>7.8168110000000004</v>
+        <v>7.7600045</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B113">
-        <v>7.7600045</v>
+        <v>7.7427510000000002</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B114">
-        <v>7.7427510000000002</v>
+        <v>7.664371</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B115">
-        <v>7.664371</v>
+        <v>7.6242536999999997</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B116">
-        <v>7.6242536999999997</v>
+        <v>7.6152930000000003</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B117">
-        <v>7.6152930000000003</v>
+        <v>7.5436044000000004</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B118">
-        <v>7.5436044000000004</v>
+        <v>7.4756264999999997</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
+        <v>155</v>
+      </c>
+      <c r="B119">
+        <v>7.4756090000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="126">
+      <c r="A120" t="s">
         <v>156</v>
       </c>
-      <c r="B119">
-        <v>7.4756264999999997</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
+      <c r="B120">
+        <v>13.336304</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B120">
-        <v>7.4756090000000004</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="126">
+      <c r="E120" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B121">
-        <v>13.336304</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>160</v>
+        <v>7.4171905999999996</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B122">
-        <v>7.4171905999999996</v>
+        <v>7.410075</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B123">
-        <v>7.410075</v>
+        <v>4.5237913000000001</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B124">
-        <v>4.5237913000000001</v>
+        <v>7.4085207000000004</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B125">
-        <v>7.4085207000000004</v>
+        <v>4.8834710000000001</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B126">
-        <v>4.8834710000000001</v>
+        <v>5.857386</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B127">
-        <v>5.857386</v>
+        <v>7.3173145999999996</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B128">
-        <v>7.3173145999999996</v>
+        <v>7.2744302999999997</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B129">
-        <v>7.2744302999999997</v>
+        <v>4.4668207000000004</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B130">
-        <v>4.4668207000000004</v>
+        <v>7.2337980000000002</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B131">
-        <v>7.2337980000000002</v>
+        <v>7.2247529999999998</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B132">
-        <v>7.2247529999999998</v>
+        <v>5.4813099999999997</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B133">
-        <v>5.4813099999999997</v>
+        <v>7.0720185999999998</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B134">
-        <v>7.0720185999999998</v>
+        <v>7.2165049999999997</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B135">
-        <v>7.2165049999999997</v>
+        <v>18.416399999999999</v>
+      </c>
+      <c r="D135" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B136">
-        <v>18.416399999999999</v>
-      </c>
-      <c r="D136" t="s">
-        <v>737</v>
+        <v>7.1261844999999999</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B137">
-        <v>7.1261844999999999</v>
+        <v>7.1238675000000002</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B138">
-        <v>7.1238675000000002</v>
+        <v>7.0397280000000002</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B139">
-        <v>7.0397280000000002</v>
+        <v>7.0208076999999998</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B140">
-        <v>7.0208076999999998</v>
+        <v>7.004791</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B141">
-        <v>7.004791</v>
+        <v>6.9741010000000001</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B142">
-        <v>6.9741010000000001</v>
+        <v>6.9161700000000002</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B143">
-        <v>6.9161700000000002</v>
+        <v>6.879467</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B144">
-        <v>6.879467</v>
+        <v>6.8301869999999996</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B145">
-        <v>6.8301869999999996</v>
+        <v>6.8068790000000003</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B146">
-        <v>6.8068790000000003</v>
+        <v>6.7823359999999999</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B147">
-        <v>6.7823359999999999</v>
+        <v>6.7390556000000004</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B148">
-        <v>6.7390556000000004</v>
+        <v>6.7331349999999999</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B149">
-        <v>6.7331349999999999</v>
+        <v>4.2001220000000004</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B150">
-        <v>4.2001220000000004</v>
+        <v>4.4160237000000002</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B151">
-        <v>4.4160237000000002</v>
+        <v>6.5826286999999999</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B152">
-        <v>6.5826286999999999</v>
+        <v>7.7472919999999998</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B153">
-        <v>7.7472919999999998</v>
+        <v>6.5540599999999998</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B154">
-        <v>6.5540599999999998</v>
+        <v>6.5481780000000001</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B155">
-        <v>6.5481780000000001</v>
+        <v>6.5189595000000002</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B156">
-        <v>6.5189595000000002</v>
+        <v>6.4998519999999997</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B157">
-        <v>6.4998519999999997</v>
+        <v>6.4519970000000004</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B158">
-        <v>6.4519970000000004</v>
+        <v>4.3447880000000003</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B159">
-        <v>4.3447880000000003</v>
+        <v>6.4469256000000001</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B160">
-        <v>6.4469256000000001</v>
+        <v>6.4110040000000001</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B161">
-        <v>6.4110040000000001</v>
+        <v>6.4054010000000003</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B162">
-        <v>6.4054010000000003</v>
+        <v>6.3876232999999996</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B163">
-        <v>6.3876232999999996</v>
+        <v>6.3672529999999998</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B164">
-        <v>6.3672529999999998</v>
+        <v>6.3312210000000002</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B165">
-        <v>6.3312210000000002</v>
+        <v>6.3265960000000003</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B166">
-        <v>6.3265960000000003</v>
+        <v>6.1969060000000002</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B167">
-        <v>6.1969060000000002</v>
+        <v>6.1816262999999996</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B168">
-        <v>6.1816262999999996</v>
+        <v>6.1513960000000001</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B169">
-        <v>6.1513960000000001</v>
+        <v>6.1128863999999998</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B170">
-        <v>6.1128863999999998</v>
+        <v>4.3996043</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B171">
-        <v>4.3996043</v>
+        <v>8.5806570000000004</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B172">
-        <v>8.5806570000000004</v>
+        <v>6.0582875999999999</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B173">
-        <v>6.0582875999999999</v>
+        <v>17.540338999999999</v>
+      </c>
+      <c r="D173" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B174">
-        <v>17.540338999999999</v>
-      </c>
-      <c r="D174" t="s">
-        <v>752</v>
+        <v>6.0453424</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B175">
-        <v>6.0453424</v>
+        <v>5.9420915000000001</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B176">
-        <v>5.9420915000000001</v>
+        <v>4.1749763</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B177">
-        <v>4.1749763</v>
+        <v>5.9242362999999996</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B178">
-        <v>5.9242362999999996</v>
+        <v>5.9238429999999997</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B179">
-        <v>5.9238429999999997</v>
+        <v>5.8722205000000001</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B180">
-        <v>5.8722205000000001</v>
+        <v>5.8620687</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B181">
-        <v>5.8620687</v>
+        <v>5.8478810000000001</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B182">
-        <v>5.8478810000000001</v>
+        <v>5.8382483000000001</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B183">
-        <v>5.8382483000000001</v>
+        <v>5.7501182999999996</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
+        <v>222</v>
+      </c>
+      <c r="B184">
+        <v>11.106961999999999</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B184">
-        <v>5.7501182999999996</v>
+      <c r="D184" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B185">
-        <v>11.106961999999999</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>225</v>
+        <v>12.623213</v>
       </c>
       <c r="D185" t="s">
-        <v>226</v>
+        <v>740</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B186">
-        <v>12.623213</v>
-      </c>
-      <c r="D186" t="s">
-        <v>742</v>
+        <v>5.7157406999999996</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B187">
-        <v>5.7157406999999996</v>
+        <v>5.7121700000000004</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B188">
-        <v>5.7121700000000004</v>
+        <v>5.6833796999999997</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B189">
-        <v>5.6833796999999997</v>
+        <v>5.6588916999999999</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B190">
-        <v>5.6588916999999999</v>
+        <v>5.6586432000000002</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B191">
-        <v>5.6586432000000002</v>
+        <v>5.6252890000000004</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B192">
-        <v>5.6252890000000004</v>
+        <v>5.6233616</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B193">
-        <v>5.6233616</v>
+        <v>5.5968989999999996</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B194">
-        <v>5.5968989999999996</v>
+        <v>5.5819353999999999</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B195">
-        <v>5.5819353999999999</v>
+        <v>4.1769566999999999</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B196">
-        <v>4.1769566999999999</v>
+        <v>5.1488823999999997</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B197">
-        <v>5.1488823999999997</v>
+        <v>7.0036345000000004</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B198">
-        <v>7.0036345000000004</v>
+        <v>5.4667415999999998</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B199">
-        <v>5.4667415999999998</v>
+        <v>5.4640529999999998</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B200">
-        <v>5.4640529999999998</v>
+        <v>6.4549440000000002</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B201">
-        <v>6.4549440000000002</v>
+        <v>5.4257249999999999</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B202">
-        <v>5.4257249999999999</v>
+        <v>5.4227056999999999</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B203">
-        <v>5.4227056999999999</v>
+        <v>5.3989224</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B204">
-        <v>5.3989224</v>
+        <v>5.2941374999999997</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B205">
-        <v>5.2941374999999997</v>
+        <v>5.2755590000000003</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B206">
-        <v>5.2755590000000003</v>
+        <v>5.2599309999999999</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B207">
-        <v>5.2599309999999999</v>
+        <v>5.2541479999999998</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
+        <v>248</v>
+      </c>
+      <c r="B208">
+        <v>5.1915044999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="105">
+      <c r="A209" t="s">
         <v>249</v>
       </c>
-      <c r="B208">
-        <v>5.2541479999999998</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
+      <c r="B209">
+        <v>11.840826</v>
+      </c>
+      <c r="C209" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B209">
-        <v>5.1915044999999997</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="105">
+      <c r="E209" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B210">
-        <v>11.840826</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>253</v>
+        <v>5.1812310000000004</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B211">
-        <v>5.1812310000000004</v>
+        <v>5.1637143999999999</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B212">
-        <v>5.1637143999999999</v>
+        <v>5.1527576000000002</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B213">
-        <v>5.1527576000000002</v>
+        <v>4.1196799999999998</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B214">
-        <v>4.1196799999999998</v>
+        <v>5.1086226000000003</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B215">
-        <v>5.1086226000000003</v>
+        <v>5.1076503000000004</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B216">
-        <v>5.1076503000000004</v>
+        <v>5.0549435999999996</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B217">
-        <v>5.0549435999999996</v>
+        <v>5.0346330000000004</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B218">
-        <v>5.0346330000000004</v>
+        <v>5.0274333999999996</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B219">
-        <v>5.0274333999999996</v>
+        <v>4.9720936</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B220">
-        <v>4.9720936</v>
+        <v>4.9299799999999996</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B221">
-        <v>4.9299799999999996</v>
+        <v>4.8793544999999998</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B222">
-        <v>4.8793544999999998</v>
+        <v>9.4566750000000006</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B223">
-        <v>9.4566750000000006</v>
+        <v>4.8660746000000001</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B224">
-        <v>4.8660746000000001</v>
+        <v>4.3234839999999997</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B225">
-        <v>4.3234839999999997</v>
+        <v>4.84504</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B226">
-        <v>4.84504</v>
+        <v>4.8359036</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B227">
-        <v>4.8359036</v>
+        <v>11.473602</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B228">
-        <v>11.473602</v>
+        <v>5.9171149999999999</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B229">
-        <v>5.9171149999999999</v>
+        <v>4.8216510000000001</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B230">
-        <v>4.8216510000000001</v>
+        <v>4.8098774000000004</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B231">
-        <v>4.8098774000000004</v>
+        <v>4.7960979999999998</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B232">
-        <v>4.7960979999999998</v>
+        <v>4.7897467999999996</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B233">
-        <v>4.7897467999999996</v>
+        <v>4.7781919999999998</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B234">
-        <v>4.7781919999999998</v>
+        <v>4.7719173000000001</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B235">
-        <v>4.7719173000000001</v>
+        <v>4.7530650000000003</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B236">
-        <v>4.7530650000000003</v>
+        <v>4.7379550000000004</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B237">
-        <v>4.7379550000000004</v>
+        <v>4.7266725999999997</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B238">
-        <v>4.7266725999999997</v>
+        <v>30.375344999999999</v>
+      </c>
+      <c r="D238" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B239">
-        <v>30.375344999999999</v>
-      </c>
-      <c r="D239" t="s">
-        <v>753</v>
+        <v>4.6842126999999998</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B240">
-        <v>4.6842126999999998</v>
+        <v>4.6670623000000004</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B241">
-        <v>4.6670623000000004</v>
+        <v>4.6386500000000002</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B242">
-        <v>4.6386500000000002</v>
+        <v>4.6196422999999998</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B243">
-        <v>4.6196422999999998</v>
+        <v>4.5885734999999999</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B244">
-        <v>4.5885734999999999</v>
+        <v>10.070762</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B245">
-        <v>10.070762</v>
+        <v>4.5426593000000004</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B246">
-        <v>4.5426593000000004</v>
+        <v>7.2042283999999999</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B247">
-        <v>7.2042283999999999</v>
+        <v>4.5404434</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B248">
-        <v>4.5404434</v>
+        <v>4.4907193000000003</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B249">
-        <v>4.4907193000000003</v>
+        <v>4.4344397000000004</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B250">
-        <v>4.4344397000000004</v>
+        <v>6.6061462999999998</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B251">
-        <v>6.6061462999999998</v>
+        <v>5.5009727000000002</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B252">
-        <v>5.5009727000000002</v>
+        <v>4.4022959999999998</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B253">
-        <v>4.4022959999999998</v>
+        <v>4.4018730000000001</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B254">
-        <v>4.4018730000000001</v>
+        <v>7.2336755000000004</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B255">
-        <v>7.2336755000000004</v>
+        <v>4.3655350000000004</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B256">
-        <v>4.3655350000000004</v>
+        <v>4.3248470000000001</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B257">
-        <v>4.3248470000000001</v>
+        <v>4.3209580000000001</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B258">
-        <v>4.3209580000000001</v>
+        <v>9.5781100000000006</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B259">
-        <v>9.5781100000000006</v>
+        <v>7.0415697000000002</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B260">
-        <v>7.0415697000000002</v>
+        <v>4.2875905000000003</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B261">
-        <v>4.2875905000000003</v>
+        <v>4.2802100000000003</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B262">
-        <v>4.2802100000000003</v>
+        <v>4.2709245999999998</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B263">
-        <v>4.2709245999999998</v>
+        <v>4.2696652000000004</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B264">
-        <v>4.2696652000000004</v>
+        <v>4.6322155</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B265">
-        <v>4.6322155</v>
+        <v>4.2660210000000003</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B266">
-        <v>4.2660210000000003</v>
+        <v>4.2541646999999996</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B267">
-        <v>4.2541646999999996</v>
+        <v>4.2250209999999999</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B268">
-        <v>4.2250209999999999</v>
+        <v>4.1354839999999999</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B269">
-        <v>4.1354839999999999</v>
+        <v>8.7555879999999995</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B270">
-        <v>8.7555879999999995</v>
+        <v>4.1120706</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B271">
-        <v>4.1120706</v>
+        <v>4.1097602999999996</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B272">
-        <v>4.1097602999999996</v>
+        <v>4.084848</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B273">
-        <v>4.084848</v>
+        <v>4.0777359999999998</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B274">
-        <v>4.0777359999999998</v>
+        <v>4.0655659999999996</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B275">
-        <v>4.0655659999999996</v>
+        <v>4.0535259999999997</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B276">
-        <v>4.0535259999999997</v>
+        <v>4.0323890000000002</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B277">
-        <v>4.0323890000000002</v>
+        <v>7.0458354999999999</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
+        <v>320</v>
+      </c>
+      <c r="B278">
+        <v>4.0063013999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B278">
-        <v>7.0458354999999999</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
-        <v>322</v>
-      </c>
       <c r="B279">
-        <v>4.0063013999999999</v>
+        <v>12.564311999999999</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B280">
-        <v>12.564311999999999</v>
+        <v>18.061699999999998</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B281">
+        <v>6.4437704</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B281">
-        <v>18.061699999999998</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="2" t="s">
+      <c r="B282">
+        <v>33.3748</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B282">
-        <v>6.4437704</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="B283">
-        <v>33.3748</v>
+        <v>8.7665710000000008</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B284">
-        <v>8.7665710000000008</v>
+        <v>64.965440000000001</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B285">
-        <v>64.965440000000001</v>
+        <v>79.094179999999994</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B286">
-        <v>79.094179999999994</v>
+        <v>87.64049</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B287">
+        <v>27.761257000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B287">
-        <v>87.64049</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="2" t="s">
+      <c r="B288">
+        <v>30.579021000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B288">
-        <v>27.761257000000001</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="B289">
-        <v>30.579021000000001</v>
+        <v>63.089024000000002</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B290">
-        <v>63.089024000000002</v>
+        <v>83.840835999999996</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B291">
-        <v>83.840835999999996</v>
+        <v>8.6587800000000001</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B292">
-        <v>8.6587800000000001</v>
+        <v>21.733470000000001</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B293">
-        <v>21.733470000000001</v>
+        <v>17.451879999999999</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B294">
+        <v>15.612137000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B294">
-        <v>17.451879999999999</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="2" t="s">
+      <c r="B295">
+        <v>29.212645999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B295">
-        <v>15.612137000000001</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="B296">
-        <v>29.212645999999999</v>
+        <v>9.1302059999999994</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B297">
-        <v>9.1302059999999994</v>
+        <v>20.363143999999998</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B298">
+        <v>22.03201</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B298">
-        <v>20.363143999999998</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="2" t="s">
+      <c r="B299">
+        <v>28.748076999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B299">
-        <v>22.03201</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="B300">
-        <v>28.748076999999999</v>
+        <v>53.495617000000003</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B301">
-        <v>53.495617000000003</v>
+        <v>43.760204000000002</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B302">
+        <v>61.963189999999997</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B302">
-        <v>43.760204000000002</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="2" t="s">
+      <c r="B303">
+        <v>25.46358</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B303">
-        <v>61.963189999999997</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="1" t="s">
+      <c r="B304">
+        <v>58.999912000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B304">
-        <v>25.46358</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="2" t="s">
+      <c r="B305">
+        <v>23.769876</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B305">
-        <v>58.999912000000002</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="1" t="s">
+      <c r="B306">
+        <v>22.145489999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B306">
-        <v>23.769876</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="2" t="s">
+      <c r="B307">
+        <v>23.696546999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B307">
-        <v>22.145489999999999</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="B308">
-        <v>23.696546999999999</v>
+        <v>38.827025999999996</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B309">
-        <v>38.827025999999996</v>
+        <v>45.364413999999996</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B310">
-        <v>45.364413999999996</v>
+        <v>5.7141859999999998</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B311">
-        <v>5.7141859999999998</v>
+        <v>60.917749999999998</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B312">
-        <v>60.917749999999998</v>
+        <v>76.485370000000003</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B313">
+        <v>36.797863</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B313">
-        <v>76.485370000000003</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="2" t="s">
+      <c r="B314">
+        <v>19.570174999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B314">
-        <v>36.797863</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="B315">
-        <v>19.570174999999999</v>
+        <v>9.2860019999999999</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B316">
+        <v>7.6094575000000004</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B316">
-        <v>9.2860019999999999</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="2" t="s">
+      <c r="B317">
+        <v>17.466356000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B317">
-        <v>7.6094575000000004</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="B318">
-        <v>17.466356000000001</v>
+        <v>17.972740000000002</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B319">
-        <v>17.972740000000002</v>
+        <v>45.770972999999998</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B320">
-        <v>45.770972999999998</v>
+        <v>57.685386999999999</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B321">
-        <v>57.685386999999999</v>
+        <v>49.023617000000002</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B322">
-        <v>49.023617000000002</v>
+        <v>54.637352</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B323">
-        <v>54.637352</v>
+        <v>80.509444999999999</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B324">
-        <v>80.509444999999999</v>
+        <v>79.706010000000006</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B325">
+        <v>4.4583409999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B325">
-        <v>79.706010000000006</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="2" t="s">
+      <c r="B326">
+        <v>15.440986000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B326">
-        <v>4.4583409999999999</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="B327">
-        <v>15.440986000000001</v>
+        <v>14.511597</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B328">
-        <v>14.511597</v>
+        <v>32.864764999999998</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B329">
-        <v>32.864764999999998</v>
+        <v>15.745611999999999</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B330">
-        <v>15.745611999999999</v>
+        <v>68.539276000000001</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B331">
-        <v>68.539276000000001</v>
+        <v>28.33878</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B332">
-        <v>28.33878</v>
+        <v>5.6612179999999999</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B333">
+        <v>17.444025</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B333">
-        <v>5.6612179999999999</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="2" t="s">
+      <c r="B334">
+        <v>13.958636</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B334">
-        <v>17.444025</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="B335">
-        <v>13.958636</v>
+        <v>43.350006</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B336">
-        <v>43.350006</v>
+        <v>48.922623000000002</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B337">
-        <v>48.922623000000002</v>
+        <v>58.374169999999999</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B338">
-        <v>58.374169999999999</v>
+        <v>9.7595869999999998</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B339">
-        <v>9.7595869999999998</v>
+        <v>82.359780000000001</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B340">
-        <v>82.359780000000001</v>
+        <v>13.638170000000001</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B341">
-        <v>13.638170000000001</v>
+        <v>32.030709999999999</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B342">
-        <v>32.030709999999999</v>
+        <v>55.123317999999998</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B343">
-        <v>55.123317999999998</v>
+        <v>26.178684000000001</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B344">
-        <v>26.178684000000001</v>
+        <v>31.752361000000001</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B345">
-        <v>31.752361000000001</v>
+        <v>36.958255999999999</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B346">
-        <v>36.958255999999999</v>
+        <v>6.3234133999999997</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B347">
-        <v>6.3234133999999997</v>
+        <v>56.520755999999999</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B348">
-        <v>56.520755999999999</v>
+        <v>56.777389999999997</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B349">
-        <v>56.777389999999997</v>
+        <v>64.076610000000002</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B350">
-        <v>64.076610000000002</v>
+        <v>62.323456</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B351">
-        <v>62.323456</v>
+        <v>14.193212000000001</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B352">
-        <v>14.193212000000001</v>
+        <v>41.263171999999997</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B353">
-        <v>41.263171999999997</v>
+        <v>68.472724999999997</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B354">
-        <v>68.472724999999997</v>
+        <v>4.622687</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B355">
-        <v>4.622687</v>
+        <v>44.003906000000001</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B356">
-        <v>44.003906000000001</v>
+        <v>5.7895440000000002</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B357">
-        <v>5.7895440000000002</v>
+        <v>5.0889186999999998</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B358">
-        <v>5.0889186999999998</v>
+        <v>21.353617</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B359">
-        <v>21.353617</v>
+        <v>46.841619999999999</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B360">
-        <v>46.841619999999999</v>
+        <v>9.6520499999999991</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B361">
-        <v>9.6520499999999991</v>
+        <v>81.440216000000007</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B362">
-        <v>81.440216000000007</v>
+        <v>62.179020000000001</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B363">
-        <v>62.179020000000001</v>
+        <v>60.329479999999997</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B364">
-        <v>60.329479999999997</v>
+        <v>70.943680000000001</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B365">
-        <v>70.943680000000001</v>
+        <v>16.377851</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B366">
-        <v>16.377851</v>
+        <v>15.18923</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B367">
-        <v>15.18923</v>
+        <v>15.668696000000001</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B368">
-        <v>15.668696000000001</v>
+        <v>54.740720000000003</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B369">
-        <v>54.740720000000003</v>
+        <v>24.327764999999999</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B370">
-        <v>24.327764999999999</v>
+        <v>6.3640129999999999</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B371">
-        <v>6.3640129999999999</v>
+        <v>18.192703000000002</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B372">
-        <v>18.192703000000002</v>
+        <v>38.499859999999998</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B373">
-        <v>38.499859999999998</v>
+        <v>25.525065999999999</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B374">
-        <v>25.525065999999999</v>
+        <v>60.556023000000003</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B375">
-        <v>60.556023000000003</v>
+        <v>51.361649999999997</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B376">
-        <v>51.361649999999997</v>
+        <v>87.243835000000004</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B377">
-        <v>87.243835000000004</v>
+        <v>59.192659999999997</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B378">
+        <v>16.672024</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B378">
-        <v>59.192659999999997</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" s="2" t="s">
+      <c r="B379">
+        <v>10.692641</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B379">
-        <v>16.672024</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="B380">
-        <v>10.692641</v>
+        <v>45.148296000000002</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B381">
-        <v>45.148296000000002</v>
+        <v>21.554300000000001</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B382">
-        <v>21.554300000000001</v>
+        <v>36.394905000000001</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B383">
-        <v>36.394905000000001</v>
+        <v>72.89873</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B384">
-        <v>72.89873</v>
+        <v>20.380503000000001</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B385">
-        <v>20.380503000000001</v>
+        <v>48.289589999999997</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B386">
-        <v>48.289589999999997</v>
+        <v>78.700270000000003</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B387">
+        <v>60.244804000000002</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B387">
-        <v>78.700270000000003</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" s="2" t="s">
+      <c r="B388">
+        <v>10.171419999999999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B388">
-        <v>60.244804000000002</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="B389">
-        <v>10.171419999999999</v>
+        <v>32.477874999999997</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B390">
-        <v>32.477874999999997</v>
+        <v>37.707973000000003</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B391">
-        <v>37.707973000000003</v>
+        <v>31.948446000000001</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B392">
-        <v>31.948446000000001</v>
+        <v>19.489370000000001</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B393">
-        <v>19.489370000000001</v>
+        <v>67.026664999999994</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B394">
-        <v>67.026664999999994</v>
+        <v>22.069468000000001</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B395">
-        <v>22.069468000000001</v>
+        <v>68.527869999999993</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B396">
-        <v>68.527869999999993</v>
+        <v>13.647183</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B397">
-        <v>13.647183</v>
+        <v>12.607746000000001</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B398">
-        <v>12.607746000000001</v>
+        <v>18.432623</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B399">
-        <v>18.432623</v>
+        <v>72.211399999999998</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B400">
-        <v>72.211399999999998</v>
+        <v>89.739769999999993</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B401">
+        <v>137.73532</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B401">
-        <v>89.739769999999993</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" s="2" t="s">
+      <c r="B402">
+        <v>9.5971689999999992</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B402">
-        <v>137.73532</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="B403">
-        <v>9.5971689999999992</v>
+        <v>56.327567999999999</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B404">
-        <v>56.327567999999999</v>
+        <v>9.437799</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B405">
-        <v>9.437799</v>
+        <v>23.372485999999999</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B406">
-        <v>23.372485999999999</v>
+        <v>14.269275</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B407">
-        <v>14.269275</v>
+        <v>6.9367390000000002</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B408">
-        <v>6.9367390000000002</v>
+        <v>55.874890000000001</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B409">
-        <v>55.874890000000001</v>
+        <v>77.706959999999995</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B410">
-        <v>77.706959999999995</v>
+        <v>85.459429999999998</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B411">
-        <v>85.459429999999998</v>
+        <v>61.451946</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B412">
-        <v>61.451946</v>
+        <v>78.205659999999995</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B413">
-        <v>78.205659999999995</v>
+        <v>4.8007536000000002</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B414">
-        <v>4.8007536000000002</v>
+        <v>61.711599999999997</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B415">
-        <v>61.711599999999997</v>
+        <v>58.582222000000002</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B416">
-        <v>58.582222000000002</v>
+        <v>59.966549999999998</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B417">
-        <v>59.966549999999998</v>
+        <v>14.265454999999999</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B418">
+        <v>45.163170000000001</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B418">
-        <v>14.265454999999999</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" s="2" t="s">
+      <c r="B419">
+        <v>9.1652079999999998</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B419">
-        <v>45.163170000000001</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="B420">
-        <v>9.1652079999999998</v>
+        <v>75.690849999999998</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B421">
-        <v>75.690849999999998</v>
+        <v>83.872110000000006</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B422">
-        <v>83.872110000000006</v>
+        <v>30.192657000000001</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B423">
-        <v>30.192657000000001</v>
+        <v>58.037945000000001</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B424">
-        <v>58.037945000000001</v>
+        <v>47.362279999999998</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B425">
-        <v>47.362279999999998</v>
+        <v>24.366206999999999</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B426">
-        <v>24.366206999999999</v>
+        <v>44.401389999999999</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B427">
-        <v>44.401389999999999</v>
+        <v>70.643330000000006</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B428">
-        <v>70.643330000000006</v>
+        <v>63.707484999999998</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B429">
-        <v>63.707484999999998</v>
+        <v>12.529817</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B430">
-        <v>12.529817</v>
+        <v>32.784706</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B431">
-        <v>32.784706</v>
+        <v>24.934979999999999</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B432">
-        <v>24.934979999999999</v>
+        <v>63.396639999999998</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B433">
-        <v>63.396639999999998</v>
+        <v>16.926641</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B434">
-        <v>16.926641</v>
+        <v>20.474888</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B435">
-        <v>20.474888</v>
+        <v>93.160970000000006</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B436">
-        <v>93.160970000000006</v>
+        <v>25.194502</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B437">
-        <v>25.194502</v>
+        <v>7.2432013</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B438">
-        <v>7.2432013</v>
+        <v>78.593040000000002</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B439">
-        <v>78.593040000000002</v>
+        <v>40.327033999999998</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B440">
-        <v>40.327033999999998</v>
+        <v>23.013165000000001</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B441">
-        <v>23.013165000000001</v>
+        <v>55.623497</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B442">
-        <v>55.623497</v>
+        <v>7.8491473000000003</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B443">
-        <v>7.8491473000000003</v>
+        <v>61.710099999999997</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B444">
-        <v>61.710099999999997</v>
+        <v>30.449059999999999</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B445">
-        <v>30.449059999999999</v>
+        <v>49.688946000000001</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B446">
-        <v>49.688946000000001</v>
+        <v>29.508112000000001</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B447">
+        <v>66.300380000000004</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B447">
-        <v>29.508112000000001</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" s="2" t="s">
+      <c r="B448">
+        <v>7.9492297000000001</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B448">
-        <v>66.300380000000004</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="B449">
-        <v>7.9492297000000001</v>
+        <v>60.996505999999997</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B450">
-        <v>60.996505999999997</v>
+        <v>31.165732999999999</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B451">
-        <v>31.165732999999999</v>
+        <v>73.976669999999999</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B452">
-        <v>73.976669999999999</v>
+        <v>38.688465000000001</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B453">
-        <v>38.688465000000001</v>
+        <v>91.720029999999994</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B454">
-        <v>91.720029999999994</v>
+        <v>70.566500000000005</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B455">
-        <v>70.566500000000005</v>
+        <v>24.228909999999999</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B456">
-        <v>24.228909999999999</v>
+        <v>83.944336000000007</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B457">
-        <v>83.944336000000007</v>
+        <v>40.015686000000002</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B458">
-        <v>40.015686000000002</v>
+        <v>58.398643</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B459">
-        <v>58.398643</v>
+        <v>43.982787999999999</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B460">
-        <v>43.982787999999999</v>
+        <v>48.834457</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B461">
-        <v>48.834457</v>
+        <v>34.892066999999997</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B462">
+        <v>37.05939</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B462">
-        <v>34.892066999999997</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
-      <c r="A463" s="2" t="s">
+      <c r="B463">
+        <v>7.8360329999999996</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B463">
-        <v>37.05939</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2">
-      <c r="A464" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="B464">
-        <v>7.8360329999999996</v>
+        <v>100.57353999999999</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B465">
-        <v>100.57353999999999</v>
+        <v>24.076588000000001</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B466">
-        <v>24.076588000000001</v>
+        <v>49.066940000000002</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B467">
-        <v>49.066940000000002</v>
+        <v>5.5793303999999999</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B468">
-        <v>5.5793303999999999</v>
+        <v>11.207234</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B469">
+        <v>6.0004280000000003</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B469">
-        <v>11.207234</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" s="2" t="s">
+      <c r="B470">
+        <v>7.6760149999999996</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B470">
-        <v>6.0004280000000003</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
-      <c r="A471" s="1" t="s">
-        <v>514</v>
-      </c>
       <c r="B471">
-        <v>7.6760149999999996</v>
+        <v>4.9782786000000003</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B472">
-        <v>4.9782786000000003</v>
+        <v>49.500959999999999</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B473">
-        <v>49.500959999999999</v>
+        <v>62.976714999999999</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B474">
-        <v>62.976714999999999</v>
+        <v>69.340040000000002</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B475">
-        <v>69.340040000000002</v>
+        <v>11.027060000000001</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B476">
-        <v>11.027060000000001</v>
+        <v>77.037223999999995</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B477">
-        <v>77.037223999999995</v>
+        <v>100.93143999999999</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B478">
-        <v>100.93143999999999</v>
+        <v>18.764658000000001</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B479">
-        <v>18.764658000000001</v>
+        <v>28.924600000000002</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B480">
-        <v>28.924600000000002</v>
+        <v>66.126670000000004</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B481">
-        <v>66.126670000000004</v>
+        <v>58.769289999999998</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B482">
-        <v>58.769289999999998</v>
+        <v>10.292236000000001</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B483">
-        <v>10.292236000000001</v>
+        <v>25.194935000000001</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B484">
-        <v>25.194935000000001</v>
+        <v>107.564285</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B485">
-        <v>107.564285</v>
+        <v>4.0231804999999996</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B486">
-        <v>4.0231804999999996</v>
+        <v>63.776156999999998</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B487">
-        <v>63.776156999999998</v>
+        <v>25.891697000000001</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B488">
-        <v>25.891697000000001</v>
+        <v>10.136157000000001</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B489">
-        <v>10.136157000000001</v>
+        <v>65.450630000000004</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B490">
-        <v>65.450630000000004</v>
+        <v>48.467936999999999</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B491">
-        <v>48.467936999999999</v>
+        <v>23.369627000000001</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B492">
-        <v>23.369627000000001</v>
+        <v>12.59329</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B493">
-        <v>12.59329</v>
+        <v>94.388565</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B494">
-        <v>94.388565</v>
+        <v>22.275404000000002</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B495">
-        <v>22.275404000000002</v>
+        <v>49.172640000000001</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B496">
-        <v>49.172640000000001</v>
+        <v>70.316019999999995</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B497">
-        <v>70.316019999999995</v>
+        <v>25.291979000000001</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B498">
-        <v>25.291979000000001</v>
+        <v>71.895989999999998</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B499">
-        <v>71.895989999999998</v>
+        <v>23.788461999999999</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B500">
-        <v>23.788461999999999</v>
+        <v>17.095376999999999</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B501">
-        <v>17.095376999999999</v>
+        <v>36.122303000000002</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B502">
-        <v>36.122303000000002</v>
+        <v>29.58323</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B503">
-        <v>29.58323</v>
+        <v>16.006032999999999</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B504">
-        <v>16.006032999999999</v>
+        <v>20.673676</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B505">
-        <v>20.673676</v>
+        <v>35.713230000000003</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B506">
-        <v>35.713230000000003</v>
+        <v>40.527495999999999</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B507">
-        <v>40.527495999999999</v>
+        <v>41.704383999999997</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B508">
-        <v>41.704383999999997</v>
+        <v>6.8520225999999997</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B509">
-        <v>6.8520225999999997</v>
+        <v>32.73272</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B510">
-        <v>32.73272</v>
+        <v>9.2294020000000003</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B511">
-        <v>9.2294020000000003</v>
+        <v>45.418427000000001</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B512">
-        <v>45.418427000000001</v>
+        <v>7.0442257000000001</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B513">
-        <v>7.0442257000000001</v>
+        <v>10.474038999999999</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B514">
-        <v>10.474038999999999</v>
+        <v>63.425370000000001</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B515">
-        <v>63.425370000000001</v>
+        <v>19.812542000000001</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B516">
-        <v>19.812542000000001</v>
+        <v>35.363529999999997</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B517">
-        <v>35.363529999999997</v>
+        <v>31.382206</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B518">
-        <v>31.382206</v>
+        <v>43.206898000000002</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B519">
-        <v>43.206898000000002</v>
+        <v>15.219291</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B520">
-        <v>15.219291</v>
+        <v>16.976928999999998</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B521">
-        <v>16.976928999999998</v>
+        <v>48.324252999999999</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B522">
-        <v>48.324252999999999</v>
+        <v>31.817022000000001</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B523">
-        <v>31.817022000000001</v>
+        <v>74.649924999999996</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B524">
-        <v>74.649924999999996</v>
+        <v>105.69096</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B525">
+        <v>60.544820000000001</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B525">
-        <v>105.69096</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2">
-      <c r="A526" s="2" t="s">
+      <c r="B526">
+        <v>6.424766</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B526">
-        <v>60.544820000000001</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2">
-      <c r="A527" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="B527">
-        <v>6.424766</v>
+        <v>4.4414096000000001</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B528">
-        <v>4.4414096000000001</v>
+        <v>4.1198645000000003</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B529">
-        <v>4.1198645000000003</v>
+        <v>88.899919999999995</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B530">
-        <v>88.899919999999995</v>
+        <v>5.6900209999999998</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B531">
-        <v>5.6900209999999998</v>
+        <v>67.873400000000004</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B532">
-        <v>67.873400000000004</v>
+        <v>38.809204000000001</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B533">
-        <v>38.809204000000001</v>
+        <v>45.564610000000002</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B534">
-        <v>45.564610000000002</v>
+        <v>23.758714999999999</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B535">
-        <v>23.758714999999999</v>
+        <v>53.367325000000001</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B536">
-        <v>53.367325000000001</v>
+        <v>55.155425999999999</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B537">
-        <v>55.155425999999999</v>
+        <v>40.102245000000003</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B538">
-        <v>40.102245000000003</v>
+        <v>14.431753</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B539">
-        <v>14.431753</v>
+        <v>58.12903</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B540">
-        <v>58.12903</v>
+        <v>64.962429999999998</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B541">
-        <v>64.962429999999998</v>
+        <v>55.128889999999998</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B542">
-        <v>55.128889999999998</v>
+        <v>54.616016000000002</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B543">
-        <v>54.616016000000002</v>
+        <v>21.028303000000001</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B544">
-        <v>21.028303000000001</v>
+        <v>44.714756000000001</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B545">
-        <v>44.714756000000001</v>
+        <v>56.663235</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B546">
-        <v>56.663235</v>
+        <v>7.9817166000000004</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B547">
-        <v>7.9817166000000004</v>
+        <v>72.068460000000002</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B548">
-        <v>72.068460000000002</v>
+        <v>51.802720000000001</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B549">
-        <v>51.802720000000001</v>
+        <v>34.738224000000002</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B550">
+        <v>64.543859999999995</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B550">
-        <v>34.738224000000002</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2">
-      <c r="A551" s="2" t="s">
+      <c r="B551">
+        <v>6.134722</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B551">
-        <v>64.543859999999995</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2">
-      <c r="A552" s="1" t="s">
-        <v>595</v>
-      </c>
       <c r="B552">
-        <v>6.134722</v>
+        <v>51.303089999999997</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B553">
-        <v>51.303089999999997</v>
+        <v>27.992725</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B554">
-        <v>27.992725</v>
+        <v>70.695070000000001</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B555">
-        <v>70.695070000000001</v>
+        <v>14.659224</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B556">
-        <v>14.659224</v>
+        <v>7.7374349999999996</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B557">
-        <v>7.7374349999999996</v>
+        <v>46.018096999999997</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B558">
-        <v>46.018096999999997</v>
+        <v>58.630659999999999</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B559">
-        <v>58.630659999999999</v>
+        <v>88.857020000000006</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B560">
-        <v>88.857020000000006</v>
+        <v>37.258540000000004</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B561">
-        <v>37.258540000000004</v>
+        <v>27.174427000000001</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B562">
-        <v>27.174427000000001</v>
+        <v>8.7785379999999993</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B563">
-        <v>8.7785379999999993</v>
+        <v>41.911749999999998</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B564">
-        <v>41.911749999999998</v>
+        <v>30.881077000000001</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B565">
-        <v>30.881077000000001</v>
+        <v>72.76688</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B566">
-        <v>72.76688</v>
+        <v>39.776294999999998</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B567">
-        <v>39.776294999999998</v>
+        <v>74.218800000000002</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B568">
-        <v>74.218800000000002</v>
+        <v>37.267952000000001</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B569">
-        <v>37.267952000000001</v>
+        <v>4.4575040000000001</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B570">
-        <v>4.4575040000000001</v>
+        <v>60.592970000000001</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B571">
-        <v>60.592970000000001</v>
+        <v>38.396614</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B572">
-        <v>38.396614</v>
+        <v>18.391649999999998</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B573">
-        <v>18.391649999999998</v>
+        <v>98.431060000000002</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B574">
-        <v>98.431060000000002</v>
+        <v>76.727990000000005</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B575">
-        <v>76.727990000000005</v>
+        <v>46.446826999999999</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B576">
+        <v>31.632083999999999</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B576">
-        <v>46.446826999999999</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2">
-      <c r="A577" s="2" t="s">
+      <c r="B577">
+        <v>5.7015000000000002</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B577">
-        <v>31.632083999999999</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2">
-      <c r="A578" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="B578">
-        <v>5.7015000000000002</v>
+        <v>75.091890000000006</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B579">
-        <v>75.091890000000006</v>
+        <v>29.479645000000001</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B580">
-        <v>29.479645000000001</v>
+        <v>7.3074063999999996</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B581">
-        <v>7.3074063999999996</v>
+        <v>8.0232729999999997</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B582">
-        <v>8.0232729999999997</v>
+        <v>100.468025</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B583">
-        <v>100.468025</v>
+        <v>93.491294999999994</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B584">
-        <v>93.491294999999994</v>
+        <v>49.031230000000001</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B585">
+        <v>51.563732000000002</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B585">
-        <v>49.031230000000001</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2">
-      <c r="A586" s="2" t="s">
+      <c r="B586">
+        <v>5.5566835000000001</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B586">
-        <v>51.563732000000002</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2">
-      <c r="A587" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="B587">
-        <v>5.5566835000000001</v>
+        <v>45.436042999999998</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B588">
+        <v>51.389766999999999</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B588">
-        <v>45.436042999999998</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2">
-      <c r="A589" s="2" t="s">
+      <c r="B589">
+        <v>5.4462609999999998</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B589">
-        <v>51.389766999999999</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2">
-      <c r="A590" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="B590">
-        <v>5.4462609999999998</v>
+        <v>92.369720000000001</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B591">
-        <v>92.369720000000001</v>
+        <v>75.674459999999996</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B592">
-        <v>75.674459999999996</v>
+        <v>73.451080000000005</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B593">
-        <v>73.451080000000005</v>
+        <v>11.687283000000001</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B594">
-        <v>11.687283000000001</v>
+        <v>81.65804</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B595">
-        <v>81.65804</v>
+        <v>50.883719999999997</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B596">
-        <v>50.883719999999997</v>
+        <v>42.631855000000002</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B597">
-        <v>42.631855000000002</v>
+        <v>86.219239999999999</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B598">
-        <v>86.219239999999999</v>
+        <v>4.7131623999999999</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B599">
-        <v>4.7131623999999999</v>
+        <v>5.0362099999999996</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B600">
-        <v>5.0362099999999996</v>
+        <v>82.605230000000006</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B601">
-        <v>82.605230000000006</v>
+        <v>31.43806</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B602">
-        <v>31.43806</v>
+        <v>57.893084999999999</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B603">
-        <v>57.893084999999999</v>
+        <v>17.874842000000001</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B604">
-        <v>17.874842000000001</v>
+        <v>49.708157</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B605">
-        <v>49.708157</v>
+        <v>22.675491000000001</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B606">
-        <v>22.675491000000001</v>
+        <v>66.631110000000007</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B607">
-        <v>66.631110000000007</v>
+        <v>27.189298999999998</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B608">
-        <v>27.189298999999998</v>
+        <v>87.402789999999996</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B609">
-        <v>87.402789999999996</v>
+        <v>31.166574000000001</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B610">
-        <v>31.166574000000001</v>
+        <v>35.914627000000003</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B611">
-        <v>35.914627000000003</v>
+        <v>51.560772</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B612">
-        <v>51.560772</v>
+        <v>82.961209999999994</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B613">
-        <v>82.961209999999994</v>
+        <v>69.013465999999994</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B614">
-        <v>69.013465999999994</v>
+        <v>10.278974</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B615">
-        <v>10.278974</v>
+        <v>28.315296</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B616">
-        <v>28.315296</v>
+        <v>33.779457000000001</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B617">
+        <v>69.485159999999993</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B617">
-        <v>33.779457000000001</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2">
-      <c r="A618" s="2" t="s">
+      <c r="B618">
+        <v>4.8004110000000004</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B618">
-        <v>69.485159999999993</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2">
-      <c r="A619" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="B619">
-        <v>4.8004110000000004</v>
+        <v>30.264658000000001</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B620">
-        <v>30.264658000000001</v>
+        <v>70.015860000000004</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B621">
-        <v>70.015860000000004</v>
+        <v>26.674251999999999</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B622">
-        <v>26.674251999999999</v>
+        <v>33.473520000000001</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B623">
-        <v>33.473520000000001</v>
+        <v>67.948670000000007</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B624">
-        <v>67.948670000000007</v>
+        <v>55.852240000000002</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B625">
-        <v>55.852240000000002</v>
+        <v>36.536830000000002</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B626">
-        <v>36.536830000000002</v>
+        <v>51.763255999999998</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B627">
+        <v>24.584826</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B627">
-        <v>51.763255999999998</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2">
-      <c r="A628" s="2" t="s">
+      <c r="B628">
+        <v>4.6228986000000001</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B628">
-        <v>24.584826</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2">
-      <c r="A629" s="1" t="s">
-        <v>672</v>
-      </c>
       <c r="B629">
-        <v>4.6228986000000001</v>
+        <v>20.895181999999998</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B630">
-        <v>20.895181999999998</v>
+        <v>11.272079</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B631">
-        <v>11.272079</v>
+        <v>72.035989999999998</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B632">
-        <v>72.035989999999998</v>
+        <v>20.725169999999999</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B633">
-        <v>20.725169999999999</v>
+        <v>27.015789000000002</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B634">
-        <v>27.015789000000002</v>
+        <v>13.546745</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B635">
-        <v>13.546745</v>
+        <v>76.899760000000001</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B636">
-        <v>76.899760000000001</v>
+        <v>6.1609860000000003</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B637">
+        <v>63.512239999999998</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B637">
-        <v>6.1609860000000003</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2">
-      <c r="A638" s="2" t="s">
+      <c r="B638">
+        <v>4.4188432999999998</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B638">
-        <v>63.512239999999998</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2">
-      <c r="A639" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="B639">
-        <v>4.4188432999999998</v>
+        <v>29.264296999999999</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B640">
-        <v>29.264296999999999</v>
+        <v>58.973495</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B641">
-        <v>58.973495</v>
+        <v>5.367432</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B642">
-        <v>5.367432</v>
+        <v>47.682312000000003</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B643">
-        <v>47.682312000000003</v>
+        <v>22.316617999999998</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B644">
-        <v>22.316617999999998</v>
+        <v>51.855953</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B645">
-        <v>51.855953</v>
+        <v>43.248040000000003</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B646">
-        <v>43.248040000000003</v>
+        <v>46.143723000000001</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B647">
+        <v>96.451989999999995</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B647">
-        <v>46.143723000000001</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2">
-      <c r="A648" s="2" t="s">
+      <c r="B648">
+        <v>4.4003433999999997</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B648">
-        <v>96.451989999999995</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2">
-      <c r="A649" s="1" t="s">
-        <v>692</v>
-      </c>
       <c r="B649">
-        <v>4.4003433999999997</v>
+        <v>8.4524069999999991</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B650">
+        <v>26.352160999999999</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B650">
-        <v>8.4524069999999991</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2">
-      <c r="A651" s="2" t="s">
+      <c r="B651">
+        <v>4.3813877000000003</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B651">
-        <v>26.352160999999999</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2">
-      <c r="A652" s="1" t="s">
-        <v>695</v>
-      </c>
       <c r="B652">
-        <v>4.3813877000000003</v>
+        <v>12.492936</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B653">
-        <v>12.492936</v>
+        <v>51.370434000000003</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B654">
-        <v>51.370434000000003</v>
+        <v>14.478657</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B655">
-        <v>14.478657</v>
+        <v>16.055426000000001</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B656">
-        <v>16.055426000000001</v>
+        <v>18.602938000000002</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B657">
-        <v>18.602938000000002</v>
+        <v>69.815539999999999</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B658">
-        <v>69.815539999999999</v>
+        <v>56.798760000000001</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B659">
-        <v>56.798760000000001</v>
+        <v>78.825460000000007</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B660">
-        <v>78.825460000000007</v>
+        <v>58.711554999999997</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B661">
-        <v>58.711554999999997</v>
+        <v>29.651406999999999</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B662">
+        <v>110.108086</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B662">
-        <v>29.651406999999999</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2">
-      <c r="A663" s="2" t="s">
+      <c r="B663">
+        <v>4.3149284999999997</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B663">
-        <v>110.108086</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2">
-      <c r="A664" s="1" t="s">
-        <v>707</v>
-      </c>
       <c r="B664">
-        <v>4.3149284999999997</v>
+        <v>56.443309999999997</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B665">
-        <v>56.443309999999997</v>
+        <v>14.471795</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B666">
-        <v>14.471795</v>
+        <v>75.403270000000006</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B667">
-        <v>75.403270000000006</v>
+        <v>66.144585000000006</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B668">
+        <v>75.928700000000006</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B668">
-        <v>66.144585000000006</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2">
-      <c r="A669" s="2" t="s">
+      <c r="B669">
+        <v>6.7461886</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B669">
-        <v>75.928700000000006</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2">
-      <c r="A670" s="1" t="s">
-        <v>713</v>
-      </c>
       <c r="B670">
-        <v>6.7461886</v>
+        <v>61.016582</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B671">
-        <v>61.016582</v>
+        <v>34.995795999999999</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B672">
-        <v>34.995795999999999</v>
+        <v>55.573753000000004</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B673">
-        <v>55.573753000000004</v>
+        <v>10.280192</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B674">
-        <v>10.280192</v>
+        <v>5.1570790000000004</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B675">
-        <v>5.1570790000000004</v>
+        <v>58.10727</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B676">
-        <v>58.10727</v>
+        <v>70.820729999999998</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B677">
-        <v>70.820729999999998</v>
+        <v>62.140957</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B678">
-        <v>62.140957</v>
+        <v>8.1761730000000004</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B679">
-        <v>8.1761730000000004</v>
+        <v>76.76558</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B680">
-        <v>76.76558</v>
+        <v>24.50055</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B681">
-        <v>24.50055</v>
+        <v>34.168840000000003</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B682">
-        <v>34.168840000000003</v>
+        <v>15.903150999999999</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B683">
-        <v>15.903150999999999</v>
+        <v>23.338884</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B684">
-        <v>23.338884</v>
+        <v>41.566063</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B685">
-        <v>41.566063</v>
+        <v>81.305440000000004</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B686">
-        <v>81.305440000000004</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2">
-      <c r="A687" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B687">
         <v>48.048084000000003</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F687" xr:uid="{0A2E40FB-77B2-9C41-8799-031BF2BC3D74}"/>
+  <autoFilter ref="A1:F686" xr:uid="{0A2E40FB-77B2-9C41-8799-031BF2BC3D74}"/>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="C69" r:id="rId1" xr:uid="{ABCBCDB1-F676-45E9-83BA-C13C2FAC4E15}"/>
-    <hyperlink ref="C68" r:id="rId2" xr:uid="{0139D124-E39D-475E-8186-41F1CD8D0058}"/>
-    <hyperlink ref="C67" r:id="rId3" xr:uid="{84CEF869-21BE-437D-B294-9D4FB8A380CD}"/>
-    <hyperlink ref="C70" r:id="rId4" display="https://ac.els-cdn.com/0038109878906506/1-s2.0-0038109878906506-main.pdf?_tid=8f1d438b-b6e4-40e8-b94f-aad04c9af82a&amp;acdnat=1541041813_9d860c4adfeb36a43920181aa0796041_x000a_https://ac.els-cdn.com/S0364591609000194/1-s2.0-S0364591609000194-main.pdf?_tid=84fab3dd-def2-4dc2-aa83-d7df3946edd8&amp;acdnat=1541042108_fc86833ff69dcdcc5dc3fae1e10b0b22" xr:uid="{974883F9-61EF-40A5-884C-C45CCBCB2824}"/>
-    <hyperlink ref="C121" r:id="rId5" xr:uid="{652937C7-6253-4408-B09F-1BFB88499AA7}"/>
-    <hyperlink ref="C185" r:id="rId6" xr:uid="{824F5FCE-68D6-4A17-AE6F-BAFA456882F4}"/>
-    <hyperlink ref="C210" r:id="rId7" xr:uid="{02F34475-224A-491D-9185-56EBD042E09A}"/>
-    <hyperlink ref="C61" r:id="rId8" xr:uid="{CC8504CC-42A6-4909-86D0-F4F7B5A48039}"/>
-    <hyperlink ref="C49" r:id="rId9" xr:uid="{27323209-0F90-40B1-A963-A191722D77ED}"/>
-    <hyperlink ref="C47" r:id="rId10" xr:uid="{A149083C-91B2-47EF-AC30-812431D398C0}"/>
-    <hyperlink ref="C46" r:id="rId11" xr:uid="{B9190F8A-941A-48BE-A2D3-965336136E37}"/>
-    <hyperlink ref="C43" r:id="rId12" xr:uid="{6F6D3F56-9C48-4B2D-84EB-C595EA4D7CC7}"/>
-    <hyperlink ref="C37" r:id="rId13" xr:uid="{A377C029-0918-48B4-A4DE-F6AD9A51DE02}"/>
-    <hyperlink ref="C35" r:id="rId14" xr:uid="{933833BA-8F39-4A7D-81B9-6A0CDF98934E}"/>
-    <hyperlink ref="C28" r:id="rId15" xr:uid="{6F1102A7-6A2E-4149-8356-E83190632D83}"/>
-    <hyperlink ref="C25" r:id="rId16" location="!divAbstract" xr:uid="{D81CAF63-7265-497D-AD62-D776138A56E2}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{CE638750-A29D-4452-8B10-0B7011B3B7E0}"/>
-    <hyperlink ref="C15" r:id="rId18" display="https://www.researchgate.net/profile/A_Christensen/publication/275930387_The_Temperature_Factor_Parameters_of_Some_Transition_Metal_Carbides_and_Nitrides_by_Single_Crystal_X-Ray_and_Neutron_Diffraction/links/567ac78908ae1975838117a6/The-Temperature-Factor-Parameters-of-Some-Transition-Metal-Carbides-and-Nitrides-by-Single-Crystal-X-Ray-and-Neutron-Diffraction.pdf" xr:uid="{24478E54-B90E-4420-AA2B-2E27A6E10ECD}"/>
-    <hyperlink ref="C10" r:id="rId19" xr:uid="{09ABBF80-BE32-4D09-AFC9-ECAE0C8691EA}"/>
-    <hyperlink ref="C9" r:id="rId20" xr:uid="{51AB7041-13EE-472E-95DA-2A93D93A58E7}"/>
-    <hyperlink ref="C7" r:id="rId21" xr:uid="{93588F47-5012-4070-832D-374774D48380}"/>
-    <hyperlink ref="C5" r:id="rId22" location="v=onepage&amp;q=Rb4C60%20superconductor&amp;f=false" display="https://books.google.co.jp/books?id=KzTm5CYfOUsC&amp;pg=PA206&amp;lpg=PA206&amp;dq=Rb4C60+superconductor&amp;source=bl&amp;ots=j4wuXVfVWj&amp;sig=aHa-LHkAUnLQSjZWYzC6V9EjgWU&amp;hl=ja&amp;sa=X&amp;ved=2ahUKEwiItuPUi43eAhUDVbwKHfXGDx0Q6AEwBXoECAQQAQ#v=onepage&amp;q=Rb4C60%20superconductor&amp;f=false" xr:uid="{4CCD4B7C-D9F3-4384-BB86-FD844CBF9837}"/>
-    <hyperlink ref="C4" r:id="rId23" display="https://pubs.rsc.org/en/content/articlepdf/2010/jm/b920468g" xr:uid="{C164FD25-6660-4804-B795-3B547E8DE6E1}"/>
+    <hyperlink ref="C68" r:id="rId1" xr:uid="{ABCBCDB1-F676-45E9-83BA-C13C2FAC4E15}"/>
+    <hyperlink ref="C67" r:id="rId2" xr:uid="{0139D124-E39D-475E-8186-41F1CD8D0058}"/>
+    <hyperlink ref="C66" r:id="rId3" xr:uid="{84CEF869-21BE-437D-B294-9D4FB8A380CD}"/>
+    <hyperlink ref="C69" r:id="rId4" display="https://ac.els-cdn.com/0038109878906506/1-s2.0-0038109878906506-main.pdf?_tid=8f1d438b-b6e4-40e8-b94f-aad04c9af82a&amp;acdnat=1541041813_9d860c4adfeb36a43920181aa0796041_x000a_https://ac.els-cdn.com/S0364591609000194/1-s2.0-S0364591609000194-main.pdf?_tid=84fab3dd-def2-4dc2-aa83-d7df3946edd8&amp;acdnat=1541042108_fc86833ff69dcdcc5dc3fae1e10b0b22" xr:uid="{974883F9-61EF-40A5-884C-C45CCBCB2824}"/>
+    <hyperlink ref="C120" r:id="rId5" xr:uid="{652937C7-6253-4408-B09F-1BFB88499AA7}"/>
+    <hyperlink ref="C184" r:id="rId6" xr:uid="{824F5FCE-68D6-4A17-AE6F-BAFA456882F4}"/>
+    <hyperlink ref="C209" r:id="rId7" xr:uid="{02F34475-224A-491D-9185-56EBD042E09A}"/>
+    <hyperlink ref="C60" r:id="rId8" xr:uid="{CC8504CC-42A6-4909-86D0-F4F7B5A48039}"/>
+    <hyperlink ref="C48" r:id="rId9" xr:uid="{27323209-0F90-40B1-A963-A191722D77ED}"/>
+    <hyperlink ref="C46" r:id="rId10" xr:uid="{A149083C-91B2-47EF-AC30-812431D398C0}"/>
+    <hyperlink ref="C45" r:id="rId11" xr:uid="{B9190F8A-941A-48BE-A2D3-965336136E37}"/>
+    <hyperlink ref="C42" r:id="rId12" xr:uid="{6F6D3F56-9C48-4B2D-84EB-C595EA4D7CC7}"/>
+    <hyperlink ref="C36" r:id="rId13" xr:uid="{A377C029-0918-48B4-A4DE-F6AD9A51DE02}"/>
+    <hyperlink ref="C34" r:id="rId14" xr:uid="{933833BA-8F39-4A7D-81B9-6A0CDF98934E}"/>
+    <hyperlink ref="C27" r:id="rId15" xr:uid="{6F1102A7-6A2E-4149-8356-E83190632D83}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{CE638750-A29D-4452-8B10-0B7011B3B7E0}"/>
+    <hyperlink ref="C15" r:id="rId17" display="https://www.researchgate.net/profile/A_Christensen/publication/275930387_The_Temperature_Factor_Parameters_of_Some_Transition_Metal_Carbides_and_Nitrides_by_Single_Crystal_X-Ray_and_Neutron_Diffraction/links/567ac78908ae1975838117a6/The-Temperature-Factor-Parameters-of-Some-Transition-Metal-Carbides-and-Nitrides-by-Single-Crystal-X-Ray-and-Neutron-Diffraction.pdf" xr:uid="{24478E54-B90E-4420-AA2B-2E27A6E10ECD}"/>
+    <hyperlink ref="C10" r:id="rId18" xr:uid="{09ABBF80-BE32-4D09-AFC9-ECAE0C8691EA}"/>
+    <hyperlink ref="C9" r:id="rId19" xr:uid="{51AB7041-13EE-472E-95DA-2A93D93A58E7}"/>
+    <hyperlink ref="C7" r:id="rId20" xr:uid="{93588F47-5012-4070-832D-374774D48380}"/>
+    <hyperlink ref="C5" r:id="rId21" location="v=onepage&amp;q=Rb4C60%20superconductor&amp;f=false" display="https://books.google.co.jp/books?id=KzTm5CYfOUsC&amp;pg=PA206&amp;lpg=PA206&amp;dq=Rb4C60+superconductor&amp;source=bl&amp;ots=j4wuXVfVWj&amp;sig=aHa-LHkAUnLQSjZWYzC6V9EjgWU&amp;hl=ja&amp;sa=X&amp;ved=2ahUKEwiItuPUi43eAhUDVbwKHfXGDx0Q6AEwBXoECAQQAQ#v=onepage&amp;q=Rb4C60%20superconductor&amp;f=false" xr:uid="{4CCD4B7C-D9F3-4384-BB86-FD844CBF9837}"/>
+    <hyperlink ref="C4" r:id="rId22" display="https://pubs.rsc.org/en/content/articlepdf/2010/jm/b920468g" xr:uid="{C164FD25-6660-4804-B795-3B547E8DE6E1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId24"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId23"/>
 </worksheet>
 </file>
--- a/go_open_candidate_materials_list.xlsx
+++ b/go_open_candidate_materials_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tomo/codes/Public_Codes/Deep-Learning-to-find-Superconductors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0467E58F-BBB3-3E47-9FA6-46BFF2FCFC38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0096A2B-149D-4F44-A06F-A87EB1ECEB5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="prediction_beyond_4_Kelvin_cnn_" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">prediction_beyond_4_Kelvin_cnn_!$A$1:$F$686</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">prediction_beyond_4_Kelvin_cnn_!$A$1:$F$685</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="775">
   <si>
     <t>matter</t>
   </si>
@@ -277,12 +277,6 @@
     <t>?</t>
   </si>
   <si>
-    <t xml:space="preserve">BBe2 </t>
-  </si>
-  <si>
-    <t>https://www.americanelements.com/beryllium-boride-be2b-12536-51-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">BrNZr </t>
   </si>
   <si>
@@ -2399,11 +2393,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>BeB3 Tc 0.7 K
-disucussed in the paper</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>α-Hf2N2S
 Tc 21 K by intercalation
 precursor of the above  material</t>
@@ -2436,10 +2425,6 @@
   </si>
   <si>
     <t>Anneal NbC, Mo, and lampblack (carbon) at 2100℃ in vacuum</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>buyable</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -3517,10 +3502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F686"/>
+  <dimension ref="A1:F685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="20"/>
@@ -3540,16 +3525,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="63">
@@ -3563,13 +3548,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1">
@@ -3583,7 +3568,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="126">
@@ -3597,13 +3582,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3620,7 +3605,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3631,10 +3616,10 @@
         <v>10.055329</v>
       </c>
       <c r="C6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3651,7 +3636,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="74" customHeight="1">
@@ -3662,16 +3647,16 @@
         <v>21.465534000000002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="84">
@@ -3685,18 +3670,18 @@
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E9" t="s">
+        <v>767</v>
+      </c>
+      <c r="F9" t="s">
         <v>752</v>
-      </c>
-      <c r="E9" t="s">
-        <v>771</v>
-      </c>
-      <c r="F9" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="84">
       <c r="A10" s="6" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B10" s="6">
         <v>20.775912999999999</v>
@@ -3705,10 +3690,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3719,10 +3704,10 @@
         <v>20.478414999999998</v>
       </c>
       <c r="D11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3741,10 +3726,10 @@
         <v>19.380490000000002</v>
       </c>
       <c r="D13" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F13" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3755,10 +3740,10 @@
         <v>18.278829999999999</v>
       </c>
       <c r="D14" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F14" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -3778,7 +3763,7 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3789,7 +3774,7 @@
         <v>17.339939999999999</v>
       </c>
       <c r="D16" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3811,13 +3796,13 @@
         <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3836,10 +3821,10 @@
         <v>16.687526999999999</v>
       </c>
       <c r="D20" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F20" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3866,10 +3851,10 @@
         <v>15.111962</v>
       </c>
       <c r="D23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F23" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3880,10 +3865,10 @@
         <v>14.989278000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F24" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3894,10 +3879,10 @@
         <v>14.763870000000001</v>
       </c>
       <c r="D25" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F25" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3908,10 +3893,10 @@
         <v>14.729661999999999</v>
       </c>
       <c r="D26" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F26" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="6" customFormat="1" ht="126">
@@ -3925,10 +3910,10 @@
         <v>41</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3939,10 +3924,10 @@
         <v>14.222785</v>
       </c>
       <c r="D28" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F28" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3953,10 +3938,10 @@
         <v>14.199691</v>
       </c>
       <c r="D29" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F29" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3967,10 +3952,10 @@
         <v>20.985856999999999</v>
       </c>
       <c r="D30" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F30" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3981,10 +3966,10 @@
         <v>13.507254</v>
       </c>
       <c r="D31" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F31" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4031,7 +4016,7 @@
         <v>12.112214</v>
       </c>
       <c r="D35" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="189">
@@ -4045,7 +4030,7 @@
         <v>55</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>56</v>
@@ -4059,7 +4044,7 @@
         <v>11.950919000000001</v>
       </c>
       <c r="D37" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4070,7 +4055,7 @@
         <v>11.923355000000001</v>
       </c>
       <c r="D38" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4081,7 +4066,7 @@
         <v>11.790248</v>
       </c>
       <c r="D39" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4092,7 +4077,7 @@
         <v>11.546416000000001</v>
       </c>
       <c r="D40" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4103,7 +4088,7 @@
         <v>11.400650000000001</v>
       </c>
       <c r="D41" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="126">
@@ -4128,7 +4113,7 @@
         <v>11.364563</v>
       </c>
       <c r="D43" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4142,117 +4127,111 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="9" customFormat="1" ht="42">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:5" s="12" customFormat="1" ht="84">
+      <c r="A45" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="9">
-        <v>11.048347</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="12">
+        <v>10.917132000000001</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="14" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46">
+        <v>4.4557830000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="105">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47">
+        <v>10.907804499999999</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" t="s">
         <v>760</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="12" customFormat="1" ht="84">
-      <c r="A46" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="12">
-        <v>10.917132000000001</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47">
-        <v>4.4557830000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="105">
+      <c r="E47" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B48">
-        <v>10.907804499999999</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>74</v>
+        <v>10.892742999999999</v>
       </c>
       <c r="D48" t="s">
-        <v>763</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>75</v>
+        <v>732</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49">
-        <v>10.892742999999999</v>
-      </c>
-      <c r="D49" t="s">
-        <v>734</v>
+        <v>7.3709020000000001</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50">
-        <v>7.3709020000000001</v>
+        <v>10.794183</v>
+      </c>
+      <c r="D50" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51">
-        <v>10.794183</v>
-      </c>
-      <c r="D51" t="s">
-        <v>745</v>
+        <v>5.4844245999999996</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52">
-        <v>5.4844245999999996</v>
+        <v>6.297339</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53">
+        <v>10.766476000000001</v>
+      </c>
+      <c r="D53" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="6" customFormat="1">
+      <c r="A54" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B53">
-        <v>6.297339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
+      <c r="B54" s="6">
+        <v>26.707329000000001</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B54">
-        <v>10.766476000000001</v>
-      </c>
-      <c r="D54" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="6" customFormat="1">
@@ -4260,51 +4239,54 @@
         <v>82</v>
       </c>
       <c r="B55" s="6">
-        <v>26.707329000000001</v>
+        <v>10.500738</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="6" customFormat="1">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="6">
-        <v>10.500738</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>85</v>
+      <c r="B56">
+        <v>9.5391969999999997</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57">
-        <v>9.5391969999999997</v>
+        <v>10.435333999999999</v>
+      </c>
+      <c r="D57" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58">
-        <v>10.435333999999999</v>
+        <v>10.406736</v>
       </c>
       <c r="D58" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59">
+        <v>10.3376465</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B59">
-        <v>10.406736</v>
-      </c>
       <c r="D59" t="s">
-        <v>734</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4312,5135 +4294,5120 @@
         <v>89</v>
       </c>
       <c r="B60">
-        <v>10.3376465</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>90</v>
+        <v>10.334042999999999</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>746</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61">
-        <v>10.334042999999999</v>
+        <v>10.244025000000001</v>
       </c>
       <c r="D61" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62">
-        <v>10.244025000000001</v>
+        <v>10.2030525</v>
       </c>
       <c r="D62" t="s">
-        <v>749</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63">
-        <v>10.2030525</v>
+        <v>10.182026</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>761</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64">
+        <v>4.172104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="12" customFormat="1" ht="105">
+      <c r="A65" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="B65" s="12">
+        <v>10.170709</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B64">
-        <v>10.182026</v>
-      </c>
-      <c r="D64" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
+      <c r="D65" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66">
+        <v>10.130252</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" t="s">
         <v>95</v>
       </c>
-      <c r="B65">
-        <v>4.172104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="12" customFormat="1" ht="105">
-      <c r="A66" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="B66" s="12">
-        <v>10.170709</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="14" t="s">
+    </row>
+    <row r="67" spans="1:6" s="9" customFormat="1" ht="42">
+      <c r="A67" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="E66" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
+      <c r="B67" s="9">
+        <v>10.110555</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B67">
-        <v>10.130252</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="252">
+      <c r="A68" t="s">
         <v>100</v>
       </c>
-      <c r="D67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="9" customFormat="1" ht="42">
-      <c r="A68" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="B68" s="9">
-        <v>10.110555</v>
-      </c>
-      <c r="C68" s="10" t="s">
+      <c r="B68">
+        <v>10.577821999999999</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>774</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="252">
+      <c r="D68" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69">
-        <v>10.577821999999999</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>103</v>
+        <v>10.041114</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>105</v>
+        <v>734</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70">
-        <v>10.041114</v>
-      </c>
-      <c r="D70" t="s">
-        <v>736</v>
+        <v>9.7570110000000003</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71">
-        <v>9.7570110000000003</v>
+        <v>10.011635999999999</v>
+      </c>
+      <c r="D71" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72">
-        <v>10.011635999999999</v>
-      </c>
-      <c r="D72" t="s">
-        <v>67</v>
+        <v>9.9628929999999993</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73">
-        <v>9.9628929999999993</v>
+        <v>5.7958198000000003</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74">
-        <v>5.7958198000000003</v>
+        <v>9.9404979999999998</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75">
-        <v>9.9404979999999998</v>
+        <v>7.0432267</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76">
-        <v>7.0432267</v>
+        <v>9.9067769999999999</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B77">
-        <v>9.9067769999999999</v>
+        <v>9.5095229999999997</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78">
-        <v>9.5095229999999997</v>
+        <v>9.4227489999999996</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79">
-        <v>9.4227489999999996</v>
+        <v>5.2780990000000001</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80">
-        <v>5.2780990000000001</v>
+        <v>9.3647100000000005</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81">
-        <v>9.3647100000000005</v>
+        <v>9.2645479999999996</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82">
-        <v>9.2645479999999996</v>
+        <v>9.1152320000000007</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B83">
-        <v>9.1152320000000007</v>
+        <v>9.0283660000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B84">
-        <v>9.0283660000000001</v>
+        <v>8.9493760000000009</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B85">
-        <v>8.9493760000000009</v>
+        <v>8.7914139999999996</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B86">
-        <v>8.7914139999999996</v>
+        <v>8.7879570000000005</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87">
-        <v>8.7879570000000005</v>
+        <v>8.7113379999999996</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B88">
-        <v>8.7113379999999996</v>
+        <v>8.6563719999999993</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89">
-        <v>8.6563719999999993</v>
+        <v>8.6401369999999993</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90">
-        <v>8.6401369999999993</v>
+        <v>11.180922499999999</v>
+      </c>
+      <c r="D90" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B91">
-        <v>11.180922499999999</v>
-      </c>
-      <c r="D91" t="s">
-        <v>765</v>
+        <v>8.6191239999999993</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92">
-        <v>8.6191239999999993</v>
+        <v>8.5480959999999993</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B93">
-        <v>8.5480959999999993</v>
+        <v>9.2778810000000007</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B94">
-        <v>9.2778810000000007</v>
+        <v>8.4480830000000005</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95">
-        <v>8.4480830000000005</v>
+        <v>8.4457900000000006</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B96">
-        <v>8.4457900000000006</v>
+        <v>9.7056839999999998</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B97">
-        <v>9.7056839999999998</v>
+        <v>8.3970690000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B98">
-        <v>8.3970690000000001</v>
+        <v>8.3649869999999993</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B99">
-        <v>8.3649869999999993</v>
+        <v>8.3461075000000005</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B100">
-        <v>8.3461075000000005</v>
+        <v>8.3442710000000009</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B101">
-        <v>8.3442710000000009</v>
+        <v>4.2646875</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B102">
-        <v>4.2646875</v>
+        <v>8.3276219999999999</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B103">
-        <v>8.3276219999999999</v>
+        <v>8.2930849999999996</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B104">
-        <v>8.2930849999999996</v>
+        <v>8.0591000000000008</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B105">
-        <v>8.0591000000000008</v>
+        <v>8.0413250000000005</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B106">
-        <v>8.0413250000000005</v>
+        <v>9.4270929999999993</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B107">
-        <v>9.4270929999999993</v>
+        <v>7.9245514999999997</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B108">
-        <v>7.9245514999999997</v>
+        <v>7.8492784999999996</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B109">
-        <v>7.8492784999999996</v>
+        <v>7.8466578</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B110">
-        <v>7.8466578</v>
+        <v>7.8168110000000004</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B111">
-        <v>7.8168110000000004</v>
+        <v>7.7600045</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B112">
-        <v>7.7600045</v>
+        <v>7.7427510000000002</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B113">
-        <v>7.7427510000000002</v>
+        <v>7.664371</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B114">
-        <v>7.664371</v>
+        <v>7.6242536999999997</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B115">
-        <v>7.6242536999999997</v>
+        <v>7.6152930000000003</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B116">
-        <v>7.6152930000000003</v>
+        <v>7.5436044000000004</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B117">
-        <v>7.5436044000000004</v>
+        <v>7.4756264999999997</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118">
+        <v>7.4756090000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="126">
+      <c r="A119" t="s">
         <v>154</v>
       </c>
-      <c r="B118">
-        <v>7.4756264999999997</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
+      <c r="B119">
+        <v>13.336304</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B119">
-        <v>7.4756090000000004</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="126">
+      <c r="E119" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B120">
-        <v>13.336304</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>158</v>
+        <v>7.4171905999999996</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B121">
-        <v>7.4171905999999996</v>
+        <v>7.410075</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122">
-        <v>7.410075</v>
+        <v>4.5237913000000001</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123">
-        <v>4.5237913000000001</v>
+        <v>7.4085207000000004</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124">
-        <v>7.4085207000000004</v>
+        <v>4.8834710000000001</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125">
-        <v>4.8834710000000001</v>
+        <v>5.857386</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126">
-        <v>5.857386</v>
+        <v>7.3173145999999996</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B127">
-        <v>7.3173145999999996</v>
+        <v>7.2744302999999997</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B128">
-        <v>7.2744302999999997</v>
+        <v>4.4668207000000004</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B129">
-        <v>4.4668207000000004</v>
+        <v>7.2337980000000002</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B130">
-        <v>7.2337980000000002</v>
+        <v>7.2247529999999998</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B131">
-        <v>7.2247529999999998</v>
+        <v>5.4813099999999997</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132">
-        <v>5.4813099999999997</v>
+        <v>7.0720185999999998</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B133">
-        <v>7.0720185999999998</v>
+        <v>7.2165049999999997</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B134">
-        <v>7.2165049999999997</v>
+        <v>18.416399999999999</v>
+      </c>
+      <c r="D134" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B135">
-        <v>18.416399999999999</v>
-      </c>
-      <c r="D135" t="s">
-        <v>735</v>
+        <v>7.1261844999999999</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B136">
-        <v>7.1261844999999999</v>
+        <v>7.1238675000000002</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B137">
-        <v>7.1238675000000002</v>
+        <v>7.0397280000000002</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B138">
-        <v>7.0397280000000002</v>
+        <v>7.0208076999999998</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139">
-        <v>7.0208076999999998</v>
+        <v>7.004791</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140">
-        <v>7.004791</v>
+        <v>6.9741010000000001</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141">
-        <v>6.9741010000000001</v>
+        <v>6.9161700000000002</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142">
-        <v>6.9161700000000002</v>
+        <v>6.879467</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143">
-        <v>6.879467</v>
+        <v>6.8301869999999996</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144">
-        <v>6.8301869999999996</v>
+        <v>6.8068790000000003</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B145">
-        <v>6.8068790000000003</v>
+        <v>6.7823359999999999</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B146">
-        <v>6.7823359999999999</v>
+        <v>6.7390556000000004</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B147">
-        <v>6.7390556000000004</v>
+        <v>6.7331349999999999</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B148">
-        <v>6.7331349999999999</v>
+        <v>4.2001220000000004</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149">
-        <v>4.2001220000000004</v>
+        <v>4.4160237000000002</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B150">
-        <v>4.4160237000000002</v>
+        <v>6.5826286999999999</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B151">
-        <v>6.5826286999999999</v>
+        <v>7.7472919999999998</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B152">
-        <v>7.7472919999999998</v>
+        <v>6.5540599999999998</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B153">
-        <v>6.5540599999999998</v>
+        <v>6.5481780000000001</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B154">
-        <v>6.5481780000000001</v>
+        <v>6.5189595000000002</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B155">
-        <v>6.5189595000000002</v>
+        <v>6.4998519999999997</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B156">
-        <v>6.4998519999999997</v>
+        <v>6.4519970000000004</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B157">
-        <v>6.4519970000000004</v>
+        <v>4.3447880000000003</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B158">
-        <v>4.3447880000000003</v>
+        <v>6.4469256000000001</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B159">
-        <v>6.4469256000000001</v>
+        <v>6.4110040000000001</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B160">
-        <v>6.4110040000000001</v>
+        <v>6.4054010000000003</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B161">
-        <v>6.4054010000000003</v>
+        <v>6.3876232999999996</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B162">
-        <v>6.3876232999999996</v>
+        <v>6.3672529999999998</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B163">
-        <v>6.3672529999999998</v>
+        <v>6.3312210000000002</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B164">
-        <v>6.3312210000000002</v>
+        <v>6.3265960000000003</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B165">
-        <v>6.3265960000000003</v>
+        <v>6.1969060000000002</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B166">
-        <v>6.1969060000000002</v>
+        <v>6.1816262999999996</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B167">
-        <v>6.1816262999999996</v>
+        <v>6.1513960000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B168">
-        <v>6.1513960000000001</v>
+        <v>6.1128863999999998</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B169">
-        <v>6.1128863999999998</v>
+        <v>4.3996043</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B170">
-        <v>4.3996043</v>
+        <v>8.5806570000000004</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171">
-        <v>8.5806570000000004</v>
+        <v>6.0582875999999999</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B172">
-        <v>6.0582875999999999</v>
+        <v>17.540338999999999</v>
+      </c>
+      <c r="D172" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B173">
-        <v>17.540338999999999</v>
-      </c>
-      <c r="D173" t="s">
-        <v>750</v>
+        <v>6.0453424</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B174">
-        <v>6.0453424</v>
+        <v>5.9420915000000001</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B175">
-        <v>5.9420915000000001</v>
+        <v>4.1749763</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B176">
-        <v>4.1749763</v>
+        <v>5.9242362999999996</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177">
-        <v>5.9242362999999996</v>
+        <v>5.9238429999999997</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B178">
-        <v>5.9238429999999997</v>
+        <v>5.8722205000000001</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B179">
-        <v>5.8722205000000001</v>
+        <v>5.8620687</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B180">
-        <v>5.8620687</v>
+        <v>5.8478810000000001</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B181">
-        <v>5.8478810000000001</v>
+        <v>5.8382483000000001</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B182">
-        <v>5.8382483000000001</v>
+        <v>5.7501182999999996</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
+        <v>220</v>
+      </c>
+      <c r="B183">
+        <v>11.106961999999999</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B183">
-        <v>5.7501182999999996</v>
+      <c r="D183" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B184">
-        <v>11.106961999999999</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>223</v>
+        <v>12.623213</v>
       </c>
       <c r="D184" t="s">
-        <v>224</v>
+        <v>738</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B185">
-        <v>12.623213</v>
-      </c>
-      <c r="D185" t="s">
-        <v>740</v>
+        <v>5.7157406999999996</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B186">
-        <v>5.7157406999999996</v>
+        <v>5.7121700000000004</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B187">
-        <v>5.7121700000000004</v>
+        <v>5.6833796999999997</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B188">
-        <v>5.6833796999999997</v>
+        <v>5.6588916999999999</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B189">
-        <v>5.6588916999999999</v>
+        <v>5.6586432000000002</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B190">
-        <v>5.6586432000000002</v>
+        <v>5.6252890000000004</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B191">
-        <v>5.6252890000000004</v>
+        <v>5.6233616</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
+        <v>231</v>
+      </c>
+      <c r="B192">
+        <v>5.5968989999999996</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
         <v>232</v>
       </c>
-      <c r="B192">
-        <v>5.6233616</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+      <c r="B193">
+        <v>5.5819353999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
         <v>233</v>
       </c>
-      <c r="B193">
-        <v>5.5968989999999996</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+      <c r="B194">
+        <v>4.1769566999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
         <v>234</v>
       </c>
-      <c r="B194">
-        <v>5.5819353999999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
+      <c r="B195">
+        <v>5.1488823999999997</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
         <v>235</v>
       </c>
-      <c r="B195">
-        <v>4.1769566999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
+      <c r="B196">
+        <v>7.0036345000000004</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
         <v>236</v>
       </c>
-      <c r="B196">
-        <v>5.1488823999999997</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+      <c r="B197">
+        <v>5.4667415999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
         <v>237</v>
       </c>
-      <c r="B197">
-        <v>7.0036345000000004</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+      <c r="B198">
+        <v>5.4640529999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
         <v>238</v>
       </c>
-      <c r="B198">
-        <v>5.4667415999999998</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+      <c r="B199">
+        <v>6.4549440000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
         <v>239</v>
       </c>
-      <c r="B199">
-        <v>5.4640529999999998</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
+      <c r="B200">
+        <v>5.4257249999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
         <v>240</v>
       </c>
-      <c r="B200">
-        <v>6.4549440000000002</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
+      <c r="B201">
+        <v>5.4227056999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
         <v>241</v>
       </c>
-      <c r="B201">
-        <v>5.4257249999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
+      <c r="B202">
+        <v>5.3989224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
         <v>242</v>
       </c>
-      <c r="B202">
-        <v>5.4227056999999999</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+      <c r="B203">
+        <v>5.2941374999999997</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
         <v>243</v>
       </c>
-      <c r="B203">
-        <v>5.3989224</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
+      <c r="B204">
+        <v>5.2755590000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
         <v>244</v>
       </c>
-      <c r="B204">
-        <v>5.2941374999999997</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
+      <c r="B205">
+        <v>5.2599309999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
         <v>245</v>
       </c>
-      <c r="B205">
-        <v>5.2755590000000003</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
+      <c r="B206">
+        <v>5.2541479999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
         <v>246</v>
       </c>
-      <c r="B206">
-        <v>5.2599309999999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
+      <c r="B207">
+        <v>5.1915044999999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="105">
+      <c r="A208" t="s">
         <v>247</v>
       </c>
-      <c r="B207">
-        <v>5.2541479999999998</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
+      <c r="B208">
+        <v>11.840826</v>
+      </c>
+      <c r="C208" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B208">
-        <v>5.1915044999999997</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="105">
+      <c r="E208" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B209">
-        <v>11.840826</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E209" s="3" t="s">
+        <v>5.1812310000000004</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
+      <c r="B210">
+        <v>5.1637143999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
         <v>252</v>
       </c>
-      <c r="B210">
-        <v>5.1812310000000004</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
+      <c r="B211">
+        <v>5.1527576000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
         <v>253</v>
       </c>
-      <c r="B211">
-        <v>5.1637143999999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
+      <c r="B212">
+        <v>4.1196799999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
         <v>254</v>
       </c>
-      <c r="B212">
-        <v>5.1527576000000002</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
+      <c r="B213">
+        <v>5.1086226000000003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
         <v>255</v>
       </c>
-      <c r="B213">
-        <v>4.1196799999999998</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
+      <c r="B214">
+        <v>5.1076503000000004</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
         <v>256</v>
       </c>
-      <c r="B214">
-        <v>5.1086226000000003</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
+      <c r="B215">
+        <v>5.0549435999999996</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
         <v>257</v>
       </c>
-      <c r="B215">
-        <v>5.1076503000000004</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
+      <c r="B216">
+        <v>5.0346330000000004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
         <v>258</v>
       </c>
-      <c r="B216">
-        <v>5.0549435999999996</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
+      <c r="B217">
+        <v>5.0274333999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
         <v>259</v>
       </c>
-      <c r="B217">
-        <v>5.0346330000000004</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
+      <c r="B218">
+        <v>4.9720936</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
         <v>260</v>
       </c>
-      <c r="B218">
-        <v>5.0274333999999996</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
+      <c r="B219">
+        <v>4.9299799999999996</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
         <v>261</v>
       </c>
-      <c r="B219">
-        <v>4.9720936</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
+      <c r="B220">
+        <v>4.8793544999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
         <v>262</v>
       </c>
-      <c r="B220">
-        <v>4.9299799999999996</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
+      <c r="B221">
+        <v>9.4566750000000006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
         <v>263</v>
       </c>
-      <c r="B221">
-        <v>4.8793544999999998</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
+      <c r="B222">
+        <v>4.8660746000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
         <v>264</v>
       </c>
-      <c r="B222">
-        <v>9.4566750000000006</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
+      <c r="B223">
+        <v>4.3234839999999997</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
         <v>265</v>
       </c>
-      <c r="B223">
-        <v>4.8660746000000001</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>266</v>
-      </c>
       <c r="B224">
-        <v>4.3234839999999997</v>
+        <v>4.84504</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B225">
-        <v>4.84504</v>
+        <v>4.8359036</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B226">
-        <v>4.8359036</v>
+        <v>11.473602</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B227">
-        <v>11.473602</v>
+        <v>5.9171149999999999</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B228">
-        <v>5.9171149999999999</v>
+        <v>4.8216510000000001</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B229">
-        <v>4.8216510000000001</v>
+        <v>4.8098774000000004</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B230">
-        <v>4.8098774000000004</v>
+        <v>4.7960979999999998</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B231">
-        <v>4.7960979999999998</v>
+        <v>4.7897467999999996</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B232">
-        <v>4.7897467999999996</v>
+        <v>4.7781919999999998</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B233">
-        <v>4.7781919999999998</v>
+        <v>4.7719173000000001</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B234">
-        <v>4.7719173000000001</v>
+        <v>4.7530650000000003</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B235">
-        <v>4.7530650000000003</v>
+        <v>4.7379550000000004</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B236">
-        <v>4.7379550000000004</v>
+        <v>4.7266725999999997</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B237">
-        <v>4.7266725999999997</v>
+        <v>30.375344999999999</v>
+      </c>
+      <c r="D237" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B238">
-        <v>30.375344999999999</v>
-      </c>
-      <c r="D238" t="s">
-        <v>751</v>
+        <v>4.6842126999999998</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B239">
-        <v>4.6842126999999998</v>
+        <v>4.6670623000000004</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B240">
-        <v>4.6670623000000004</v>
+        <v>4.6386500000000002</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B241">
-        <v>4.6386500000000002</v>
+        <v>4.6196422999999998</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B242">
-        <v>4.6196422999999998</v>
+        <v>4.5885734999999999</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B243">
-        <v>4.5885734999999999</v>
+        <v>10.070762</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B244">
-        <v>10.070762</v>
+        <v>4.5426593000000004</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B245">
-        <v>4.5426593000000004</v>
+        <v>7.2042283999999999</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B246">
-        <v>7.2042283999999999</v>
+        <v>4.5404434</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B247">
-        <v>4.5404434</v>
+        <v>4.4907193000000003</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B248">
-        <v>4.4907193000000003</v>
+        <v>4.4344397000000004</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B249">
-        <v>4.4344397000000004</v>
+        <v>6.6061462999999998</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B250">
-        <v>6.6061462999999998</v>
+        <v>5.5009727000000002</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B251">
-        <v>5.5009727000000002</v>
+        <v>4.4022959999999998</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B252">
-        <v>4.4022959999999998</v>
+        <v>4.4018730000000001</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B253">
-        <v>4.4018730000000001</v>
+        <v>7.2336755000000004</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B254">
-        <v>7.2336755000000004</v>
+        <v>4.3655350000000004</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B255">
-        <v>4.3655350000000004</v>
+        <v>4.3248470000000001</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B256">
-        <v>4.3248470000000001</v>
+        <v>4.3209580000000001</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B257">
-        <v>4.3209580000000001</v>
+        <v>9.5781100000000006</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B258">
-        <v>9.5781100000000006</v>
+        <v>7.0415697000000002</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B259">
-        <v>7.0415697000000002</v>
+        <v>4.2875905000000003</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B260">
-        <v>4.2875905000000003</v>
+        <v>4.2802100000000003</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B261">
-        <v>4.2802100000000003</v>
+        <v>4.2709245999999998</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B262">
-        <v>4.2709245999999998</v>
+        <v>4.2696652000000004</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B263">
-        <v>4.2696652000000004</v>
+        <v>4.6322155</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B264">
-        <v>4.6322155</v>
+        <v>4.2660210000000003</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B265">
-        <v>4.2660210000000003</v>
+        <v>4.2541646999999996</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B266">
-        <v>4.2541646999999996</v>
+        <v>4.2250209999999999</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B267">
-        <v>4.2250209999999999</v>
+        <v>4.1354839999999999</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B268">
-        <v>4.1354839999999999</v>
+        <v>8.7555879999999995</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B269">
-        <v>8.7555879999999995</v>
+        <v>4.1120706</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B270">
-        <v>4.1120706</v>
+        <v>4.1097602999999996</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B271">
-        <v>4.1097602999999996</v>
+        <v>4.084848</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B272">
-        <v>4.084848</v>
+        <v>4.0777359999999998</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B273">
-        <v>4.0777359999999998</v>
+        <v>4.0655659999999996</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B274">
-        <v>4.0655659999999996</v>
+        <v>4.0535259999999997</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B275">
-        <v>4.0535259999999997</v>
+        <v>4.0323890000000002</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B276">
-        <v>4.0323890000000002</v>
+        <v>7.0458354999999999</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
+        <v>318</v>
+      </c>
+      <c r="B277">
+        <v>4.0063013999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B277">
-        <v>7.0458354999999999</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
-        <v>320</v>
-      </c>
       <c r="B278">
-        <v>4.0063013999999999</v>
+        <v>12.564311999999999</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B279">
-        <v>12.564311999999999</v>
+        <v>18.061699999999998</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B280">
+        <v>6.4437704</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B280">
-        <v>18.061699999999998</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="2" t="s">
+      <c r="B281">
+        <v>33.3748</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B281">
-        <v>6.4437704</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="B282">
-        <v>33.3748</v>
+        <v>8.7665710000000008</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B283">
-        <v>8.7665710000000008</v>
+        <v>64.965440000000001</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B284">
-        <v>64.965440000000001</v>
+        <v>79.094179999999994</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B285">
-        <v>79.094179999999994</v>
+        <v>87.64049</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B286">
+        <v>27.761257000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B286">
-        <v>87.64049</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="2" t="s">
+      <c r="B287">
+        <v>30.579021000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B287">
-        <v>27.761257000000001</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="B288">
-        <v>30.579021000000001</v>
+        <v>63.089024000000002</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B289">
-        <v>63.089024000000002</v>
+        <v>83.840835999999996</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B290">
-        <v>83.840835999999996</v>
+        <v>8.6587800000000001</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B291">
-        <v>8.6587800000000001</v>
+        <v>21.733470000000001</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B292">
-        <v>21.733470000000001</v>
+        <v>17.451879999999999</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B293">
+        <v>15.612137000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B293">
-        <v>17.451879999999999</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="2" t="s">
+      <c r="B294">
+        <v>29.212645999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B294">
-        <v>15.612137000000001</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="B295">
-        <v>29.212645999999999</v>
+        <v>9.1302059999999994</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B296">
-        <v>9.1302059999999994</v>
+        <v>20.363143999999998</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B297">
+        <v>22.03201</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B297">
-        <v>20.363143999999998</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="2" t="s">
+      <c r="B298">
+        <v>28.748076999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B298">
-        <v>22.03201</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="B299">
-        <v>28.748076999999999</v>
+        <v>53.495617000000003</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B300">
-        <v>53.495617000000003</v>
+        <v>43.760204000000002</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B301">
+        <v>61.963189999999997</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B301">
-        <v>43.760204000000002</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="2" t="s">
+      <c r="B302">
+        <v>25.46358</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B302">
-        <v>61.963189999999997</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="1" t="s">
+      <c r="B303">
+        <v>58.999912000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B303">
-        <v>25.46358</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="2" t="s">
+      <c r="B304">
+        <v>23.769876</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B304">
-        <v>58.999912000000002</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="1" t="s">
+      <c r="B305">
+        <v>22.145489999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B305">
-        <v>23.769876</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="2" t="s">
+      <c r="B306">
+        <v>23.696546999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B306">
-        <v>22.145489999999999</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="B307">
-        <v>23.696546999999999</v>
+        <v>38.827025999999996</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B308">
-        <v>38.827025999999996</v>
+        <v>45.364413999999996</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B309">
-        <v>45.364413999999996</v>
+        <v>5.7141859999999998</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B310">
-        <v>5.7141859999999998</v>
+        <v>60.917749999999998</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B311">
-        <v>60.917749999999998</v>
+        <v>76.485370000000003</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B312">
+        <v>36.797863</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B312">
-        <v>76.485370000000003</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="2" t="s">
+      <c r="B313">
+        <v>19.570174999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B313">
-        <v>36.797863</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="B314">
-        <v>19.570174999999999</v>
+        <v>9.2860019999999999</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B315">
+        <v>7.6094575000000004</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B315">
-        <v>9.2860019999999999</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="2" t="s">
+      <c r="B316">
+        <v>17.466356000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B316">
-        <v>7.6094575000000004</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="B317">
-        <v>17.466356000000001</v>
+        <v>17.972740000000002</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B318">
-        <v>17.972740000000002</v>
+        <v>45.770972999999998</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B319">
-        <v>45.770972999999998</v>
+        <v>57.685386999999999</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B320">
-        <v>57.685386999999999</v>
+        <v>49.023617000000002</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B321">
-        <v>49.023617000000002</v>
+        <v>54.637352</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B322">
-        <v>54.637352</v>
+        <v>80.509444999999999</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B323">
-        <v>80.509444999999999</v>
+        <v>79.706010000000006</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B324">
+        <v>4.4583409999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B324">
-        <v>79.706010000000006</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="2" t="s">
+      <c r="B325">
+        <v>15.440986000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B325">
-        <v>4.4583409999999999</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="B326">
-        <v>15.440986000000001</v>
+        <v>14.511597</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B327">
-        <v>14.511597</v>
+        <v>32.864764999999998</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B328">
-        <v>32.864764999999998</v>
+        <v>15.745611999999999</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B329">
-        <v>15.745611999999999</v>
+        <v>68.539276000000001</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B330">
-        <v>68.539276000000001</v>
+        <v>28.33878</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B331">
-        <v>28.33878</v>
+        <v>5.6612179999999999</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B332">
+        <v>17.444025</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B332">
-        <v>5.6612179999999999</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="2" t="s">
+      <c r="B333">
+        <v>13.958636</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B333">
-        <v>17.444025</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="B334">
-        <v>13.958636</v>
+        <v>43.350006</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B335">
-        <v>43.350006</v>
+        <v>48.922623000000002</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B336">
-        <v>48.922623000000002</v>
+        <v>58.374169999999999</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B337">
-        <v>58.374169999999999</v>
+        <v>9.7595869999999998</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B338">
-        <v>9.7595869999999998</v>
+        <v>82.359780000000001</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B339">
-        <v>82.359780000000001</v>
+        <v>13.638170000000001</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B340">
-        <v>13.638170000000001</v>
+        <v>32.030709999999999</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B341">
-        <v>32.030709999999999</v>
+        <v>55.123317999999998</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B342">
-        <v>55.123317999999998</v>
+        <v>26.178684000000001</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B343">
-        <v>26.178684000000001</v>
+        <v>31.752361000000001</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B344">
-        <v>31.752361000000001</v>
+        <v>36.958255999999999</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B345">
-        <v>36.958255999999999</v>
+        <v>6.3234133999999997</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B346">
-        <v>6.3234133999999997</v>
+        <v>56.520755999999999</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B347">
-        <v>56.520755999999999</v>
+        <v>56.777389999999997</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B348">
-        <v>56.777389999999997</v>
+        <v>64.076610000000002</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B349">
-        <v>64.076610000000002</v>
+        <v>62.323456</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B350">
-        <v>62.323456</v>
+        <v>14.193212000000001</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B351">
-        <v>14.193212000000001</v>
+        <v>41.263171999999997</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B352">
-        <v>41.263171999999997</v>
+        <v>68.472724999999997</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B353">
-        <v>68.472724999999997</v>
+        <v>4.622687</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B354">
-        <v>4.622687</v>
+        <v>44.003906000000001</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B355">
-        <v>44.003906000000001</v>
+        <v>5.7895440000000002</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B356">
-        <v>5.7895440000000002</v>
+        <v>5.0889186999999998</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B357">
-        <v>5.0889186999999998</v>
+        <v>21.353617</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B358">
-        <v>21.353617</v>
+        <v>46.841619999999999</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B359">
-        <v>46.841619999999999</v>
+        <v>9.6520499999999991</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B360">
-        <v>9.6520499999999991</v>
+        <v>81.440216000000007</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B361">
-        <v>81.440216000000007</v>
+        <v>62.179020000000001</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B362">
-        <v>62.179020000000001</v>
+        <v>60.329479999999997</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B363">
-        <v>60.329479999999997</v>
+        <v>70.943680000000001</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B364">
-        <v>70.943680000000001</v>
+        <v>16.377851</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B365">
-        <v>16.377851</v>
+        <v>15.18923</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B366">
-        <v>15.18923</v>
+        <v>15.668696000000001</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B367">
-        <v>15.668696000000001</v>
+        <v>54.740720000000003</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B368">
-        <v>54.740720000000003</v>
+        <v>24.327764999999999</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B369">
-        <v>24.327764999999999</v>
+        <v>6.3640129999999999</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B370">
-        <v>6.3640129999999999</v>
+        <v>18.192703000000002</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B371">
-        <v>18.192703000000002</v>
+        <v>38.499859999999998</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B372">
-        <v>38.499859999999998</v>
+        <v>25.525065999999999</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B373">
-        <v>25.525065999999999</v>
+        <v>60.556023000000003</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B374">
-        <v>60.556023000000003</v>
+        <v>51.361649999999997</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B375">
-        <v>51.361649999999997</v>
+        <v>87.243835000000004</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B376">
-        <v>87.243835000000004</v>
+        <v>59.192659999999997</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B377">
+        <v>16.672024</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B377">
-        <v>59.192659999999997</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" s="2" t="s">
+      <c r="B378">
+        <v>10.692641</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B378">
-        <v>16.672024</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="B379">
-        <v>10.692641</v>
+        <v>45.148296000000002</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B380">
-        <v>45.148296000000002</v>
+        <v>21.554300000000001</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B381">
-        <v>21.554300000000001</v>
+        <v>36.394905000000001</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B382">
-        <v>36.394905000000001</v>
+        <v>72.89873</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B383">
-        <v>72.89873</v>
+        <v>20.380503000000001</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B384">
-        <v>20.380503000000001</v>
+        <v>48.289589999999997</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B385">
-        <v>48.289589999999997</v>
+        <v>78.700270000000003</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B386">
+        <v>60.244804000000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B386">
-        <v>78.700270000000003</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" s="2" t="s">
+      <c r="B387">
+        <v>10.171419999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B387">
-        <v>60.244804000000002</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="B388">
-        <v>10.171419999999999</v>
+        <v>32.477874999999997</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B389">
-        <v>32.477874999999997</v>
+        <v>37.707973000000003</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B390">
-        <v>37.707973000000003</v>
+        <v>31.948446000000001</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B391">
-        <v>31.948446000000001</v>
+        <v>19.489370000000001</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B392">
-        <v>19.489370000000001</v>
+        <v>67.026664999999994</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B393">
-        <v>67.026664999999994</v>
+        <v>22.069468000000001</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B394">
-        <v>22.069468000000001</v>
+        <v>68.527869999999993</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B395">
-        <v>68.527869999999993</v>
+        <v>13.647183</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B396">
-        <v>13.647183</v>
+        <v>12.607746000000001</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B397">
-        <v>12.607746000000001</v>
+        <v>18.432623</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B398">
-        <v>18.432623</v>
+        <v>72.211399999999998</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B399">
-        <v>72.211399999999998</v>
+        <v>89.739769999999993</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B400">
+        <v>137.73532</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B400">
-        <v>89.739769999999993</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" s="2" t="s">
+      <c r="B401">
+        <v>9.5971689999999992</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B401">
-        <v>137.73532</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="B402">
-        <v>9.5971689999999992</v>
+        <v>56.327567999999999</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B403">
-        <v>56.327567999999999</v>
+        <v>9.437799</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B404">
-        <v>9.437799</v>
+        <v>23.372485999999999</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B405">
-        <v>23.372485999999999</v>
+        <v>14.269275</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B406">
-        <v>14.269275</v>
+        <v>6.9367390000000002</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B407">
-        <v>6.9367390000000002</v>
+        <v>55.874890000000001</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B408">
-        <v>55.874890000000001</v>
+        <v>77.706959999999995</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B409">
-        <v>77.706959999999995</v>
+        <v>85.459429999999998</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B410">
-        <v>85.459429999999998</v>
+        <v>61.451946</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B411">
-        <v>61.451946</v>
+        <v>78.205659999999995</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B412">
-        <v>78.205659999999995</v>
+        <v>4.8007536000000002</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B413">
-        <v>4.8007536000000002</v>
+        <v>61.711599999999997</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B414">
-        <v>61.711599999999997</v>
+        <v>58.582222000000002</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B415">
-        <v>58.582222000000002</v>
+        <v>59.966549999999998</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B416">
-        <v>59.966549999999998</v>
+        <v>14.265454999999999</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B417">
+        <v>45.163170000000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B417">
-        <v>14.265454999999999</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" s="2" t="s">
+      <c r="B418">
+        <v>9.1652079999999998</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B418">
-        <v>45.163170000000001</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="B419">
-        <v>9.1652079999999998</v>
+        <v>75.690849999999998</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B420">
-        <v>75.690849999999998</v>
+        <v>83.872110000000006</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B421">
-        <v>83.872110000000006</v>
+        <v>30.192657000000001</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B422">
-        <v>30.192657000000001</v>
+        <v>58.037945000000001</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B423">
-        <v>58.037945000000001</v>
+        <v>47.362279999999998</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B424">
-        <v>47.362279999999998</v>
+        <v>24.366206999999999</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B425">
-        <v>24.366206999999999</v>
+        <v>44.401389999999999</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B426">
-        <v>44.401389999999999</v>
+        <v>70.643330000000006</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B427">
-        <v>70.643330000000006</v>
+        <v>63.707484999999998</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B428">
-        <v>63.707484999999998</v>
+        <v>12.529817</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B429">
-        <v>12.529817</v>
+        <v>32.784706</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B430">
-        <v>32.784706</v>
+        <v>24.934979999999999</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B431">
-        <v>24.934979999999999</v>
+        <v>63.396639999999998</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B432">
-        <v>63.396639999999998</v>
+        <v>16.926641</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B433">
-        <v>16.926641</v>
+        <v>20.474888</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B434">
-        <v>20.474888</v>
+        <v>93.160970000000006</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B435">
-        <v>93.160970000000006</v>
+        <v>25.194502</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B436">
-        <v>25.194502</v>
+        <v>7.2432013</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B437">
-        <v>7.2432013</v>
+        <v>78.593040000000002</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B438">
-        <v>78.593040000000002</v>
+        <v>40.327033999999998</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B439">
-        <v>40.327033999999998</v>
+        <v>23.013165000000001</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B440">
-        <v>23.013165000000001</v>
+        <v>55.623497</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B441">
-        <v>55.623497</v>
+        <v>7.8491473000000003</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B442">
-        <v>7.8491473000000003</v>
+        <v>61.710099999999997</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B443">
-        <v>61.710099999999997</v>
+        <v>30.449059999999999</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B444">
-        <v>30.449059999999999</v>
+        <v>49.688946000000001</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B445">
-        <v>49.688946000000001</v>
+        <v>29.508112000000001</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B446">
+        <v>66.300380000000004</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B446">
-        <v>29.508112000000001</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2">
-      <c r="A447" s="2" t="s">
+      <c r="B447">
+        <v>7.9492297000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B447">
-        <v>66.300380000000004</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="B448">
-        <v>7.9492297000000001</v>
+        <v>60.996505999999997</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B449">
-        <v>60.996505999999997</v>
+        <v>31.165732999999999</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B450">
-        <v>31.165732999999999</v>
+        <v>73.976669999999999</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B451">
-        <v>73.976669999999999</v>
+        <v>38.688465000000001</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B452">
-        <v>38.688465000000001</v>
+        <v>91.720029999999994</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B453">
-        <v>91.720029999999994</v>
+        <v>70.566500000000005</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B454">
-        <v>70.566500000000005</v>
+        <v>24.228909999999999</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B455">
-        <v>24.228909999999999</v>
+        <v>83.944336000000007</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B456">
-        <v>83.944336000000007</v>
+        <v>40.015686000000002</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B457">
-        <v>40.015686000000002</v>
+        <v>58.398643</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B458">
-        <v>58.398643</v>
+        <v>43.982787999999999</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B459">
-        <v>43.982787999999999</v>
+        <v>48.834457</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B460">
-        <v>48.834457</v>
+        <v>34.892066999999997</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B461">
+        <v>37.05939</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B461">
-        <v>34.892066999999997</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
-      <c r="A462" s="2" t="s">
+      <c r="B462">
+        <v>7.8360329999999996</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B462">
-        <v>37.05939</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
-      <c r="A463" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="B463">
-        <v>7.8360329999999996</v>
+        <v>100.57353999999999</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B464">
-        <v>100.57353999999999</v>
+        <v>24.076588000000001</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B465">
-        <v>24.076588000000001</v>
+        <v>49.066940000000002</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B466">
-        <v>49.066940000000002</v>
+        <v>5.5793303999999999</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B467">
-        <v>5.5793303999999999</v>
+        <v>11.207234</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B468">
+        <v>6.0004280000000003</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B468">
-        <v>11.207234</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
-      <c r="A469" s="2" t="s">
+      <c r="B469">
+        <v>7.6760149999999996</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B469">
-        <v>6.0004280000000003</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="B470">
-        <v>7.6760149999999996</v>
+        <v>4.9782786000000003</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B471">
-        <v>4.9782786000000003</v>
+        <v>49.500959999999999</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B472">
-        <v>49.500959999999999</v>
+        <v>62.976714999999999</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B473">
-        <v>62.976714999999999</v>
+        <v>69.340040000000002</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B474">
-        <v>69.340040000000002</v>
+        <v>11.027060000000001</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B475">
-        <v>11.027060000000001</v>
+        <v>77.037223999999995</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B476">
-        <v>77.037223999999995</v>
+        <v>100.93143999999999</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B477">
-        <v>100.93143999999999</v>
+        <v>18.764658000000001</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B478">
-        <v>18.764658000000001</v>
+        <v>28.924600000000002</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B479">
-        <v>28.924600000000002</v>
+        <v>66.126670000000004</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B480">
-        <v>66.126670000000004</v>
+        <v>58.769289999999998</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B481">
-        <v>58.769289999999998</v>
+        <v>10.292236000000001</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B482">
-        <v>10.292236000000001</v>
+        <v>25.194935000000001</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B483">
-        <v>25.194935000000001</v>
+        <v>107.564285</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B484">
-        <v>107.564285</v>
+        <v>4.0231804999999996</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B485">
-        <v>4.0231804999999996</v>
+        <v>63.776156999999998</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B486">
-        <v>63.776156999999998</v>
+        <v>25.891697000000001</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B487">
-        <v>25.891697000000001</v>
+        <v>10.136157000000001</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B488">
-        <v>10.136157000000001</v>
+        <v>65.450630000000004</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B489">
-        <v>65.450630000000004</v>
+        <v>48.467936999999999</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B490">
-        <v>48.467936999999999</v>
+        <v>23.369627000000001</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B491">
-        <v>23.369627000000001</v>
+        <v>12.59329</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B492">
-        <v>12.59329</v>
+        <v>94.388565</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B493">
-        <v>94.388565</v>
+        <v>22.275404000000002</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B494">
-        <v>22.275404000000002</v>
+        <v>49.172640000000001</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B495">
-        <v>49.172640000000001</v>
+        <v>70.316019999999995</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B496">
-        <v>70.316019999999995</v>
+        <v>25.291979000000001</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B497">
-        <v>25.291979000000001</v>
+        <v>71.895989999999998</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B498">
-        <v>71.895989999999998</v>
+        <v>23.788461999999999</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B499">
-        <v>23.788461999999999</v>
+        <v>17.095376999999999</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B500">
-        <v>17.095376999999999</v>
+        <v>36.122303000000002</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B501">
-        <v>36.122303000000002</v>
+        <v>29.58323</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B502">
-        <v>29.58323</v>
+        <v>16.006032999999999</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B503">
-        <v>16.006032999999999</v>
+        <v>20.673676</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B504">
-        <v>20.673676</v>
+        <v>35.713230000000003</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B505">
-        <v>35.713230000000003</v>
+        <v>40.527495999999999</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B506">
-        <v>40.527495999999999</v>
+        <v>41.704383999999997</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B507">
-        <v>41.704383999999997</v>
+        <v>6.8520225999999997</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B508">
-        <v>6.8520225999999997</v>
+        <v>32.73272</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B509">
-        <v>32.73272</v>
+        <v>9.2294020000000003</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B510">
-        <v>9.2294020000000003</v>
+        <v>45.418427000000001</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B511">
-        <v>45.418427000000001</v>
+        <v>7.0442257000000001</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B512">
-        <v>7.0442257000000001</v>
+        <v>10.474038999999999</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B513">
-        <v>10.474038999999999</v>
+        <v>63.425370000000001</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B514">
-        <v>63.425370000000001</v>
+        <v>19.812542000000001</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B515">
-        <v>19.812542000000001</v>
+        <v>35.363529999999997</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B516">
-        <v>35.363529999999997</v>
+        <v>31.382206</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B517">
-        <v>31.382206</v>
+        <v>43.206898000000002</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B518">
-        <v>43.206898000000002</v>
+        <v>15.219291</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B519">
-        <v>15.219291</v>
+        <v>16.976928999999998</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B520">
-        <v>16.976928999999998</v>
+        <v>48.324252999999999</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B521">
-        <v>48.324252999999999</v>
+        <v>31.817022000000001</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B522">
-        <v>31.817022000000001</v>
+        <v>74.649924999999996</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B523">
-        <v>74.649924999999996</v>
+        <v>105.69096</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B524">
+        <v>60.544820000000001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B524">
-        <v>105.69096</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2">
-      <c r="A525" s="2" t="s">
+      <c r="B525">
+        <v>6.424766</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B525">
-        <v>60.544820000000001</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2">
-      <c r="A526" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="B526">
-        <v>6.424766</v>
+        <v>4.4414096000000001</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B527">
-        <v>4.4414096000000001</v>
+        <v>4.1198645000000003</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B528">
-        <v>4.1198645000000003</v>
+        <v>88.899919999999995</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B529">
-        <v>88.899919999999995</v>
+        <v>5.6900209999999998</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B530">
-        <v>5.6900209999999998</v>
+        <v>67.873400000000004</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B531">
-        <v>67.873400000000004</v>
+        <v>38.809204000000001</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B532">
-        <v>38.809204000000001</v>
+        <v>45.564610000000002</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B533">
-        <v>45.564610000000002</v>
+        <v>23.758714999999999</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B534">
-        <v>23.758714999999999</v>
+        <v>53.367325000000001</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B535">
-        <v>53.367325000000001</v>
+        <v>55.155425999999999</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B536">
-        <v>55.155425999999999</v>
+        <v>40.102245000000003</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B537">
-        <v>40.102245000000003</v>
+        <v>14.431753</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B538">
-        <v>14.431753</v>
+        <v>58.12903</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B539">
-        <v>58.12903</v>
+        <v>64.962429999999998</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B540">
-        <v>64.962429999999998</v>
+        <v>55.128889999999998</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B541">
-        <v>55.128889999999998</v>
+        <v>54.616016000000002</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B542">
-        <v>54.616016000000002</v>
+        <v>21.028303000000001</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B543">
-        <v>21.028303000000001</v>
+        <v>44.714756000000001</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B544">
-        <v>44.714756000000001</v>
+        <v>56.663235</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B545">
-        <v>56.663235</v>
+        <v>7.9817166000000004</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B546">
-        <v>7.9817166000000004</v>
+        <v>72.068460000000002</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B547">
-        <v>72.068460000000002</v>
+        <v>51.802720000000001</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B548">
-        <v>51.802720000000001</v>
+        <v>34.738224000000002</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B549">
+        <v>64.543859999999995</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B549">
-        <v>34.738224000000002</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2">
-      <c r="A550" s="2" t="s">
+      <c r="B550">
+        <v>6.134722</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B550">
-        <v>64.543859999999995</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2">
-      <c r="A551" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="B551">
-        <v>6.134722</v>
+        <v>51.303089999999997</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B552">
-        <v>51.303089999999997</v>
+        <v>27.992725</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B553">
-        <v>27.992725</v>
+        <v>70.695070000000001</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B554">
-        <v>70.695070000000001</v>
+        <v>14.659224</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B555">
-        <v>14.659224</v>
+        <v>7.7374349999999996</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B556">
-        <v>7.7374349999999996</v>
+        <v>46.018096999999997</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B557">
-        <v>46.018096999999997</v>
+        <v>58.630659999999999</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B558">
-        <v>58.630659999999999</v>
+        <v>88.857020000000006</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B559">
-        <v>88.857020000000006</v>
+        <v>37.258540000000004</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B560">
-        <v>37.258540000000004</v>
+        <v>27.174427000000001</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B561">
-        <v>27.174427000000001</v>
+        <v>8.7785379999999993</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B562">
-        <v>8.7785379999999993</v>
+        <v>41.911749999999998</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B563">
-        <v>41.911749999999998</v>
+        <v>30.881077000000001</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B564">
-        <v>30.881077000000001</v>
+        <v>72.76688</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B565">
-        <v>72.76688</v>
+        <v>39.776294999999998</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B566">
-        <v>39.776294999999998</v>
+        <v>74.218800000000002</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B567">
-        <v>74.218800000000002</v>
+        <v>37.267952000000001</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B568">
-        <v>37.267952000000001</v>
+        <v>4.4575040000000001</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B569">
-        <v>4.4575040000000001</v>
+        <v>60.592970000000001</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B570">
-        <v>60.592970000000001</v>
+        <v>38.396614</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B571">
-        <v>38.396614</v>
+        <v>18.391649999999998</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B572">
-        <v>18.391649999999998</v>
+        <v>98.431060000000002</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B573">
-        <v>98.431060000000002</v>
+        <v>76.727990000000005</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B574">
-        <v>76.727990000000005</v>
+        <v>46.446826999999999</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B575">
+        <v>31.632083999999999</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B575">
-        <v>46.446826999999999</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2">
-      <c r="A576" s="2" t="s">
+      <c r="B576">
+        <v>5.7015000000000002</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B576">
-        <v>31.632083999999999</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2">
-      <c r="A577" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="B577">
-        <v>5.7015000000000002</v>
+        <v>75.091890000000006</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B578">
-        <v>75.091890000000006</v>
+        <v>29.479645000000001</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B579">
-        <v>29.479645000000001</v>
+        <v>7.3074063999999996</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B580">
-        <v>7.3074063999999996</v>
+        <v>8.0232729999999997</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B581">
-        <v>8.0232729999999997</v>
+        <v>100.468025</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B582">
-        <v>100.468025</v>
+        <v>93.491294999999994</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B583">
-        <v>93.491294999999994</v>
+        <v>49.031230000000001</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B584">
+        <v>51.563732000000002</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B584">
-        <v>49.031230000000001</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2">
-      <c r="A585" s="2" t="s">
+      <c r="B585">
+        <v>5.5566835000000001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B585">
-        <v>51.563732000000002</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2">
-      <c r="A586" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="B586">
-        <v>5.5566835000000001</v>
+        <v>45.436042999999998</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B587">
+        <v>51.389766999999999</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B587">
-        <v>45.436042999999998</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2">
-      <c r="A588" s="2" t="s">
+      <c r="B588">
+        <v>5.4462609999999998</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B588">
-        <v>51.389766999999999</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2">
-      <c r="A589" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="B589">
-        <v>5.4462609999999998</v>
+        <v>92.369720000000001</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B590">
-        <v>92.369720000000001</v>
+        <v>75.674459999999996</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B591">
-        <v>75.674459999999996</v>
+        <v>73.451080000000005</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B592">
-        <v>73.451080000000005</v>
+        <v>11.687283000000001</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B593">
-        <v>11.687283000000001</v>
+        <v>81.65804</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B594">
-        <v>81.65804</v>
+        <v>50.883719999999997</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B595">
-        <v>50.883719999999997</v>
+        <v>42.631855000000002</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B596">
-        <v>42.631855000000002</v>
+        <v>86.219239999999999</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B597">
-        <v>86.219239999999999</v>
+        <v>4.7131623999999999</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B598">
-        <v>4.7131623999999999</v>
+        <v>5.0362099999999996</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B599">
-        <v>5.0362099999999996</v>
+        <v>82.605230000000006</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B600">
-        <v>82.605230000000006</v>
+        <v>31.43806</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B601">
-        <v>31.43806</v>
+        <v>57.893084999999999</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B602">
-        <v>57.893084999999999</v>
+        <v>17.874842000000001</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B603">
-        <v>17.874842000000001</v>
+        <v>49.708157</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B604">
-        <v>49.708157</v>
+        <v>22.675491000000001</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B605">
-        <v>22.675491000000001</v>
+        <v>66.631110000000007</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B606">
-        <v>66.631110000000007</v>
+        <v>27.189298999999998</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B607">
-        <v>27.189298999999998</v>
+        <v>87.402789999999996</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B608">
-        <v>87.402789999999996</v>
+        <v>31.166574000000001</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B609">
-        <v>31.166574000000001</v>
+        <v>35.914627000000003</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B610">
-        <v>35.914627000000003</v>
+        <v>51.560772</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B611">
-        <v>51.560772</v>
+        <v>82.961209999999994</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B612">
-        <v>82.961209999999994</v>
+        <v>69.013465999999994</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B613">
-        <v>69.013465999999994</v>
+        <v>10.278974</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B614">
-        <v>10.278974</v>
+        <v>28.315296</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B615">
-        <v>28.315296</v>
+        <v>33.779457000000001</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B616">
+        <v>69.485159999999993</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B616">
-        <v>33.779457000000001</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2">
-      <c r="A617" s="2" t="s">
+      <c r="B617">
+        <v>4.8004110000000004</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B617">
-        <v>69.485159999999993</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2">
-      <c r="A618" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="B618">
-        <v>4.8004110000000004</v>
+        <v>30.264658000000001</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B619">
-        <v>30.264658000000001</v>
+        <v>70.015860000000004</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B620">
-        <v>70.015860000000004</v>
+        <v>26.674251999999999</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B621">
-        <v>26.674251999999999</v>
+        <v>33.473520000000001</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B622">
-        <v>33.473520000000001</v>
+        <v>67.948670000000007</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B623">
-        <v>67.948670000000007</v>
+        <v>55.852240000000002</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B624">
-        <v>55.852240000000002</v>
+        <v>36.536830000000002</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B625">
-        <v>36.536830000000002</v>
+        <v>51.763255999999998</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B626">
+        <v>24.584826</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B626">
-        <v>51.763255999999998</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2">
-      <c r="A627" s="2" t="s">
+      <c r="B627">
+        <v>4.6228986000000001</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B627">
-        <v>24.584826</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2">
-      <c r="A628" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="B628">
-        <v>4.6228986000000001</v>
+        <v>20.895181999999998</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B629">
-        <v>20.895181999999998</v>
+        <v>11.272079</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B630">
-        <v>11.272079</v>
+        <v>72.035989999999998</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B631">
-        <v>72.035989999999998</v>
+        <v>20.725169999999999</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B632">
-        <v>20.725169999999999</v>
+        <v>27.015789000000002</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B633">
-        <v>27.015789000000002</v>
+        <v>13.546745</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B634">
-        <v>13.546745</v>
+        <v>76.899760000000001</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B635">
-        <v>76.899760000000001</v>
+        <v>6.1609860000000003</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B636">
+        <v>63.512239999999998</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B636">
-        <v>6.1609860000000003</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2">
-      <c r="A637" s="2" t="s">
+      <c r="B637">
+        <v>4.4188432999999998</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B637">
-        <v>63.512239999999998</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2">
-      <c r="A638" s="1" t="s">
-        <v>680</v>
-      </c>
       <c r="B638">
-        <v>4.4188432999999998</v>
+        <v>29.264296999999999</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B639">
-        <v>29.264296999999999</v>
+        <v>58.973495</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B640">
-        <v>58.973495</v>
+        <v>5.367432</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B641">
-        <v>5.367432</v>
+        <v>47.682312000000003</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B642">
-        <v>47.682312000000003</v>
+        <v>22.316617999999998</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B643">
-        <v>22.316617999999998</v>
+        <v>51.855953</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B644">
-        <v>51.855953</v>
+        <v>43.248040000000003</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B645">
-        <v>43.248040000000003</v>
+        <v>46.143723000000001</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B646">
+        <v>96.451989999999995</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B646">
-        <v>46.143723000000001</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2">
-      <c r="A647" s="2" t="s">
+      <c r="B647">
+        <v>4.4003433999999997</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B647">
-        <v>96.451989999999995</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2">
-      <c r="A648" s="1" t="s">
-        <v>690</v>
-      </c>
       <c r="B648">
-        <v>4.4003433999999997</v>
+        <v>8.4524069999999991</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B649">
+        <v>26.352160999999999</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B649">
-        <v>8.4524069999999991</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2">
-      <c r="A650" s="2" t="s">
+      <c r="B650">
+        <v>4.3813877000000003</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B650">
-        <v>26.352160999999999</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2">
-      <c r="A651" s="1" t="s">
-        <v>693</v>
-      </c>
       <c r="B651">
-        <v>4.3813877000000003</v>
+        <v>12.492936</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B652">
-        <v>12.492936</v>
+        <v>51.370434000000003</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B653">
-        <v>51.370434000000003</v>
+        <v>14.478657</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B654">
-        <v>14.478657</v>
+        <v>16.055426000000001</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B655">
-        <v>16.055426000000001</v>
+        <v>18.602938000000002</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B656">
-        <v>18.602938000000002</v>
+        <v>69.815539999999999</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B657">
-        <v>69.815539999999999</v>
+        <v>56.798760000000001</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B658">
-        <v>56.798760000000001</v>
+        <v>78.825460000000007</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B659">
-        <v>78.825460000000007</v>
+        <v>58.711554999999997</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B660">
-        <v>58.711554999999997</v>
+        <v>29.651406999999999</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B661">
+        <v>110.108086</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B661">
-        <v>29.651406999999999</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2">
-      <c r="A662" s="2" t="s">
+      <c r="B662">
+        <v>4.3149284999999997</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="B662">
-        <v>110.108086</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2">
-      <c r="A663" s="1" t="s">
-        <v>705</v>
-      </c>
       <c r="B663">
-        <v>4.3149284999999997</v>
+        <v>56.443309999999997</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B664">
-        <v>56.443309999999997</v>
+        <v>14.471795</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B665">
-        <v>14.471795</v>
+        <v>75.403270000000006</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B666">
-        <v>75.403270000000006</v>
+        <v>66.144585000000006</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B667">
+        <v>75.928700000000006</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B667">
-        <v>66.144585000000006</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2">
-      <c r="A668" s="2" t="s">
+      <c r="B668">
+        <v>6.7461886</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B668">
-        <v>75.928700000000006</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2">
-      <c r="A669" s="1" t="s">
-        <v>711</v>
-      </c>
       <c r="B669">
-        <v>6.7461886</v>
+        <v>61.016582</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B670">
-        <v>61.016582</v>
+        <v>34.995795999999999</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B671">
-        <v>34.995795999999999</v>
+        <v>55.573753000000004</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B672">
-        <v>55.573753000000004</v>
+        <v>10.280192</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B673">
-        <v>10.280192</v>
+        <v>5.1570790000000004</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B674">
-        <v>5.1570790000000004</v>
+        <v>58.10727</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B675">
-        <v>58.10727</v>
+        <v>70.820729999999998</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B676">
-        <v>70.820729999999998</v>
+        <v>62.140957</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B677">
-        <v>62.140957</v>
+        <v>8.1761730000000004</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B678">
-        <v>8.1761730000000004</v>
+        <v>76.76558</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B679">
-        <v>76.76558</v>
+        <v>24.50055</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B680">
-        <v>24.50055</v>
+        <v>34.168840000000003</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B681">
-        <v>34.168840000000003</v>
+        <v>15.903150999999999</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B682">
-        <v>15.903150999999999</v>
+        <v>23.338884</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B683">
-        <v>23.338884</v>
+        <v>41.566063</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B684">
-        <v>41.566063</v>
+        <v>81.305440000000004</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B685">
-        <v>81.305440000000004</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2">
-      <c r="A686" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="B686">
         <v>48.048084000000003</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F686" xr:uid="{0A2E40FB-77B2-9C41-8799-031BF2BC3D74}"/>
+  <autoFilter ref="A1:F685" xr:uid="{0A2E40FB-77B2-9C41-8799-031BF2BC3D74}"/>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="C68" r:id="rId1" xr:uid="{ABCBCDB1-F676-45E9-83BA-C13C2FAC4E15}"/>
-    <hyperlink ref="C67" r:id="rId2" xr:uid="{0139D124-E39D-475E-8186-41F1CD8D0058}"/>
-    <hyperlink ref="C66" r:id="rId3" xr:uid="{84CEF869-21BE-437D-B294-9D4FB8A380CD}"/>
-    <hyperlink ref="C69" r:id="rId4" display="https://ac.els-cdn.com/0038109878906506/1-s2.0-0038109878906506-main.pdf?_tid=8f1d438b-b6e4-40e8-b94f-aad04c9af82a&amp;acdnat=1541041813_9d860c4adfeb36a43920181aa0796041_x000a_https://ac.els-cdn.com/S0364591609000194/1-s2.0-S0364591609000194-main.pdf?_tid=84fab3dd-def2-4dc2-aa83-d7df3946edd8&amp;acdnat=1541042108_fc86833ff69dcdcc5dc3fae1e10b0b22" xr:uid="{974883F9-61EF-40A5-884C-C45CCBCB2824}"/>
-    <hyperlink ref="C120" r:id="rId5" xr:uid="{652937C7-6253-4408-B09F-1BFB88499AA7}"/>
-    <hyperlink ref="C184" r:id="rId6" xr:uid="{824F5FCE-68D6-4A17-AE6F-BAFA456882F4}"/>
-    <hyperlink ref="C209" r:id="rId7" xr:uid="{02F34475-224A-491D-9185-56EBD042E09A}"/>
-    <hyperlink ref="C60" r:id="rId8" xr:uid="{CC8504CC-42A6-4909-86D0-F4F7B5A48039}"/>
-    <hyperlink ref="C48" r:id="rId9" xr:uid="{27323209-0F90-40B1-A963-A191722D77ED}"/>
-    <hyperlink ref="C46" r:id="rId10" xr:uid="{A149083C-91B2-47EF-AC30-812431D398C0}"/>
-    <hyperlink ref="C45" r:id="rId11" xr:uid="{B9190F8A-941A-48BE-A2D3-965336136E37}"/>
-    <hyperlink ref="C42" r:id="rId12" xr:uid="{6F6D3F56-9C48-4B2D-84EB-C595EA4D7CC7}"/>
-    <hyperlink ref="C36" r:id="rId13" xr:uid="{A377C029-0918-48B4-A4DE-F6AD9A51DE02}"/>
-    <hyperlink ref="C34" r:id="rId14" xr:uid="{933833BA-8F39-4A7D-81B9-6A0CDF98934E}"/>
-    <hyperlink ref="C27" r:id="rId15" xr:uid="{6F1102A7-6A2E-4149-8356-E83190632D83}"/>
-    <hyperlink ref="C18" r:id="rId16" xr:uid="{CE638750-A29D-4452-8B10-0B7011B3B7E0}"/>
-    <hyperlink ref="C15" r:id="rId17" display="https://www.researchgate.net/profile/A_Christensen/publication/275930387_The_Temperature_Factor_Parameters_of_Some_Transition_Metal_Carbides_and_Nitrides_by_Single_Crystal_X-Ray_and_Neutron_Diffraction/links/567ac78908ae1975838117a6/The-Temperature-Factor-Parameters-of-Some-Transition-Metal-Carbides-and-Nitrides-by-Single-Crystal-X-Ray-and-Neutron-Diffraction.pdf" xr:uid="{24478E54-B90E-4420-AA2B-2E27A6E10ECD}"/>
-    <hyperlink ref="C10" r:id="rId18" xr:uid="{09ABBF80-BE32-4D09-AFC9-ECAE0C8691EA}"/>
-    <hyperlink ref="C9" r:id="rId19" xr:uid="{51AB7041-13EE-472E-95DA-2A93D93A58E7}"/>
-    <hyperlink ref="C7" r:id="rId20" xr:uid="{93588F47-5012-4070-832D-374774D48380}"/>
-    <hyperlink ref="C5" r:id="rId21" location="v=onepage&amp;q=Rb4C60%20superconductor&amp;f=false" display="https://books.google.co.jp/books?id=KzTm5CYfOUsC&amp;pg=PA206&amp;lpg=PA206&amp;dq=Rb4C60+superconductor&amp;source=bl&amp;ots=j4wuXVfVWj&amp;sig=aHa-LHkAUnLQSjZWYzC6V9EjgWU&amp;hl=ja&amp;sa=X&amp;ved=2ahUKEwiItuPUi43eAhUDVbwKHfXGDx0Q6AEwBXoECAQQAQ#v=onepage&amp;q=Rb4C60%20superconductor&amp;f=false" xr:uid="{4CCD4B7C-D9F3-4384-BB86-FD844CBF9837}"/>
-    <hyperlink ref="C4" r:id="rId22" display="https://pubs.rsc.org/en/content/articlepdf/2010/jm/b920468g" xr:uid="{C164FD25-6660-4804-B795-3B547E8DE6E1}"/>
+    <hyperlink ref="C67" r:id="rId1" xr:uid="{ABCBCDB1-F676-45E9-83BA-C13C2FAC4E15}"/>
+    <hyperlink ref="C66" r:id="rId2" xr:uid="{0139D124-E39D-475E-8186-41F1CD8D0058}"/>
+    <hyperlink ref="C65" r:id="rId3" xr:uid="{84CEF869-21BE-437D-B294-9D4FB8A380CD}"/>
+    <hyperlink ref="C68" r:id="rId4" display="https://ac.els-cdn.com/0038109878906506/1-s2.0-0038109878906506-main.pdf?_tid=8f1d438b-b6e4-40e8-b94f-aad04c9af82a&amp;acdnat=1541041813_9d860c4adfeb36a43920181aa0796041_x000a_https://ac.els-cdn.com/S0364591609000194/1-s2.0-S0364591609000194-main.pdf?_tid=84fab3dd-def2-4dc2-aa83-d7df3946edd8&amp;acdnat=1541042108_fc86833ff69dcdcc5dc3fae1e10b0b22" xr:uid="{974883F9-61EF-40A5-884C-C45CCBCB2824}"/>
+    <hyperlink ref="C119" r:id="rId5" xr:uid="{652937C7-6253-4408-B09F-1BFB88499AA7}"/>
+    <hyperlink ref="C183" r:id="rId6" xr:uid="{824F5FCE-68D6-4A17-AE6F-BAFA456882F4}"/>
+    <hyperlink ref="C208" r:id="rId7" xr:uid="{02F34475-224A-491D-9185-56EBD042E09A}"/>
+    <hyperlink ref="C59" r:id="rId8" xr:uid="{CC8504CC-42A6-4909-86D0-F4F7B5A48039}"/>
+    <hyperlink ref="C47" r:id="rId9" xr:uid="{27323209-0F90-40B1-A963-A191722D77ED}"/>
+    <hyperlink ref="C45" r:id="rId10" xr:uid="{A149083C-91B2-47EF-AC30-812431D398C0}"/>
+    <hyperlink ref="C42" r:id="rId11" xr:uid="{6F6D3F56-9C48-4B2D-84EB-C595EA4D7CC7}"/>
+    <hyperlink ref="C36" r:id="rId12" xr:uid="{A377C029-0918-48B4-A4DE-F6AD9A51DE02}"/>
+    <hyperlink ref="C34" r:id="rId13" xr:uid="{933833BA-8F39-4A7D-81B9-6A0CDF98934E}"/>
+    <hyperlink ref="C27" r:id="rId14" xr:uid="{6F1102A7-6A2E-4149-8356-E83190632D83}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{CE638750-A29D-4452-8B10-0B7011B3B7E0}"/>
+    <hyperlink ref="C15" r:id="rId16" display="https://www.researchgate.net/profile/A_Christensen/publication/275930387_The_Temperature_Factor_Parameters_of_Some_Transition_Metal_Carbides_and_Nitrides_by_Single_Crystal_X-Ray_and_Neutron_Diffraction/links/567ac78908ae1975838117a6/The-Temperature-Factor-Parameters-of-Some-Transition-Metal-Carbides-and-Nitrides-by-Single-Crystal-X-Ray-and-Neutron-Diffraction.pdf" xr:uid="{24478E54-B90E-4420-AA2B-2E27A6E10ECD}"/>
+    <hyperlink ref="C10" r:id="rId17" xr:uid="{09ABBF80-BE32-4D09-AFC9-ECAE0C8691EA}"/>
+    <hyperlink ref="C9" r:id="rId18" xr:uid="{51AB7041-13EE-472E-95DA-2A93D93A58E7}"/>
+    <hyperlink ref="C7" r:id="rId19" xr:uid="{93588F47-5012-4070-832D-374774D48380}"/>
+    <hyperlink ref="C5" r:id="rId20" location="v=onepage&amp;q=Rb4C60%20superconductor&amp;f=false" display="https://books.google.co.jp/books?id=KzTm5CYfOUsC&amp;pg=PA206&amp;lpg=PA206&amp;dq=Rb4C60+superconductor&amp;source=bl&amp;ots=j4wuXVfVWj&amp;sig=aHa-LHkAUnLQSjZWYzC6V9EjgWU&amp;hl=ja&amp;sa=X&amp;ved=2ahUKEwiItuPUi43eAhUDVbwKHfXGDx0Q6AEwBXoECAQQAQ#v=onepage&amp;q=Rb4C60%20superconductor&amp;f=false" xr:uid="{4CCD4B7C-D9F3-4384-BB86-FD844CBF9837}"/>
+    <hyperlink ref="C4" r:id="rId21" display="https://pubs.rsc.org/en/content/articlepdf/2010/jm/b920468g" xr:uid="{C164FD25-6660-4804-B795-3B547E8DE6E1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId23"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId22"/>
 </worksheet>
 </file>